--- a/Jan'2021/Daily Sales Details/06.01.2021/BL Sales Info.xlsx
+++ b/Jan'2021/Daily Sales Details/06.01.2021/BL Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -46,17 +46,7 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>*</author>
-  </authors>
-  <commentList>
-    <comment ref="AQ11" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>*:</t>
         </r>
@@ -73,10 +63,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Road Cost+electric sarvice</t>
+Pinter Tonal</t>
         </r>
       </text>
     </comment>
@@ -85,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="144">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -186,9 +176,6 @@
     <t>B.Link Credit (+)</t>
   </si>
   <si>
-    <t>Date:05.01.2021</t>
-  </si>
-  <si>
     <t>Distributor:Banglalink</t>
   </si>
   <si>
@@ -258,9 +245,6 @@
     <t>550 Kanaikhali,Natore</t>
   </si>
   <si>
-    <t>Date: 05-01-2021</t>
-  </si>
-  <si>
     <t>Opening Stock Card</t>
   </si>
   <si>
@@ -408,9 +392,6 @@
     <t>Iqbal</t>
   </si>
   <si>
-    <t xml:space="preserve">5 sim+2 kit </t>
-  </si>
-  <si>
     <t>Shamim</t>
   </si>
   <si>
@@ -420,9 +401,6 @@
     <t>Rony</t>
   </si>
   <si>
-    <t>Bivash</t>
-  </si>
-  <si>
     <t>Nayeem</t>
   </si>
   <si>
@@ -444,9 +422,6 @@
     <t>4 sim</t>
   </si>
   <si>
-    <t>Salman</t>
-  </si>
-  <si>
     <t>Ankur</t>
   </si>
   <si>
@@ -492,9 +467,6 @@
     <t>Today Due(-)</t>
   </si>
   <si>
-    <t>imran</t>
-  </si>
-  <si>
     <t>Total Cash</t>
   </si>
   <si>
@@ -517,6 +489,24 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Date: 06-01-2021</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 kit </t>
+  </si>
+  <si>
+    <t>Midul</t>
+  </si>
+  <si>
+    <t>06.01.2021</t>
+  </si>
+  <si>
+    <t>Date:06.01.2021</t>
   </si>
 </sst>
 </file>
@@ -527,7 +517,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,19 +741,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -2134,157 +2111,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2503,130 +2339,271 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="20" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="22" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="24" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="22" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="22" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="24" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="16" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="20" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2635,19 +2612,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2679,23 +2644,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color rgb="FF006100"/>
@@ -2703,114 +2651,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2925,39 +2765,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -3275,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3287,70 +3094,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="287" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="287"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="288" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="288"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="288"/>
+      <c r="R2" s="288"/>
+    </row>
+    <row r="3" spans="1:25" s="136" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="297" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-    </row>
-    <row r="3" spans="1:25" s="136" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="182" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
+      <c r="P3" s="298"/>
+      <c r="Q3" s="298"/>
+      <c r="R3" s="299"/>
       <c r="T3" s="137"/>
       <c r="U3" s="138"/>
       <c r="V3" s="138"/>
@@ -3359,59 +3166,59 @@
       <c r="Y3" s="139"/>
     </row>
     <row r="4" spans="1:25" s="139" customFormat="1">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="289" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="291" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="201" t="s">
+      <c r="C4" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="D4" s="285" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="195" t="s">
+      <c r="E4" s="285" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="195" t="s">
+      <c r="F4" s="285" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="195" t="s">
+      <c r="G4" s="285" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="195" t="s">
+      <c r="H4" s="285" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="195" t="s">
+      <c r="I4" s="285" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="195" t="s">
+      <c r="J4" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="195" t="s">
+      <c r="K4" s="300" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="185" t="s">
+      <c r="L4" s="302" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="187" t="s">
+      <c r="M4" s="304" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="189" t="s">
+      <c r="N4" s="306" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="308" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="191" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="193" t="s">
+      <c r="P4" s="293" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="178" t="s">
+      <c r="Q4" s="295" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="180" t="s">
+      <c r="R4" s="140" t="s">
         <v>51</v>
-      </c>
-      <c r="R4" s="140" t="s">
-        <v>52</v>
       </c>
       <c r="T4" s="137"/>
       <c r="U4" s="138"/>
@@ -3420,25 +3227,25 @@
       <c r="X4" s="138"/>
     </row>
     <row r="5" spans="1:25" s="139" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="200"/>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="181"/>
+      <c r="A5" s="290"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286"/>
+      <c r="K5" s="301"/>
+      <c r="L5" s="303"/>
+      <c r="M5" s="305"/>
+      <c r="N5" s="307"/>
+      <c r="O5" s="309"/>
+      <c r="P5" s="294"/>
+      <c r="Q5" s="296"/>
       <c r="R5" s="142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T5" s="143"/>
       <c r="U5" s="144"/>
@@ -3518,13 +3325,19 @@
       <c r="X7" s="144"/>
     </row>
     <row r="8" spans="1:25" s="145" customFormat="1">
-      <c r="A8" s="146"/>
+      <c r="A8" s="146" t="s">
+        <v>142</v>
+      </c>
       <c r="B8" s="152"/>
       <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
+      <c r="D8" s="153">
+        <v>400</v>
+      </c>
       <c r="E8" s="153"/>
       <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
+      <c r="G8" s="153">
+        <v>2246</v>
+      </c>
       <c r="H8" s="153"/>
       <c r="I8" s="153"/>
       <c r="J8" s="153"/>
@@ -3537,13 +3350,13 @@
       <c r="Q8" s="155"/>
       <c r="R8" s="150">
         <f t="shared" ref="R8:R36" si="0">SUM(B8:Q8)</f>
-        <v>0</v>
+        <v>2646</v>
       </c>
       <c r="S8" s="151"/>
       <c r="T8" s="156"/>
       <c r="U8" s="156"/>
       <c r="V8" s="138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W8" s="144"/>
       <c r="X8" s="138"/>
@@ -4301,7 +4114,7 @@
     </row>
     <row r="37" spans="1:19" s="172" customFormat="1" ht="15.75" thickBot="1">
       <c r="A37" s="167" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="168">
         <f>SUM(B6:B36)</f>
@@ -4313,7 +4126,7 @@
       </c>
       <c r="D37" s="169">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="E37" s="169">
         <f t="shared" si="1"/>
@@ -4325,7 +4138,7 @@
       </c>
       <c r="G37" s="169">
         <f t="shared" si="1"/>
-        <v>9445</v>
+        <v>11691</v>
       </c>
       <c r="H37" s="169">
         <f t="shared" si="1"/>
@@ -4369,7 +4182,7 @@
       </c>
       <c r="R37" s="171">
         <f>SUM(R6:R36)</f>
-        <v>10095</v>
+        <v>12741</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -6366,6 +6179,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6378,14 +6199,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6397,7 +6210,7 @@
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6411,12 +6224,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="312"/>
       <c r="F1" s="14"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -6431,12 +6244,12 @@
       <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" thickBot="1">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="313" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="315"/>
       <c r="F2" s="14"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -6712,12 +6525,18 @@
       <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="81"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="95"/>
+      <c r="A12" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="99">
+        <v>335000</v>
+      </c>
+      <c r="C12" s="95">
+        <v>0</v>
+      </c>
       <c r="D12" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="13"/>
@@ -6741,7 +6560,7 @@
       <c r="C13" s="102"/>
       <c r="D13" s="82">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="79"/>
@@ -6765,7 +6584,7 @@
       <c r="C14" s="102"/>
       <c r="D14" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="79"/>
@@ -6789,7 +6608,7 @@
       <c r="C15" s="102"/>
       <c r="D15" s="77">
         <f>D14+B15-C15</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="83"/>
@@ -6813,7 +6632,7 @@
       <c r="C16" s="78"/>
       <c r="D16" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="84"/>
@@ -6837,7 +6656,7 @@
       <c r="C17" s="78"/>
       <c r="D17" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="79"/>
@@ -6861,7 +6680,7 @@
       <c r="C18" s="95"/>
       <c r="D18" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="79"/>
@@ -6885,7 +6704,7 @@
       <c r="C19" s="95"/>
       <c r="D19" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="84"/>
@@ -6909,7 +6728,7 @@
       <c r="C20" s="102"/>
       <c r="D20" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="103"/>
@@ -6933,7 +6752,7 @@
       <c r="C21" s="78"/>
       <c r="D21" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="79"/>
@@ -6957,7 +6776,7 @@
       <c r="C22" s="78"/>
       <c r="D22" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="97"/>
@@ -6981,7 +6800,7 @@
       <c r="C23" s="78"/>
       <c r="D23" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E23" s="83"/>
       <c r="F23" s="14"/>
@@ -7005,7 +6824,7 @@
       <c r="C24" s="78"/>
       <c r="D24" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="79"/>
@@ -7029,7 +6848,7 @@
       <c r="C25" s="78"/>
       <c r="D25" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E25" s="83"/>
       <c r="F25" s="14"/>
@@ -7053,7 +6872,7 @@
       <c r="C26" s="95"/>
       <c r="D26" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="41"/>
@@ -7075,7 +6894,7 @@
       <c r="C27" s="95"/>
       <c r="D27" s="77">
         <f>D26+B27-C27</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E27" s="83"/>
       <c r="F27" s="40"/>
@@ -7097,7 +6916,7 @@
       <c r="C28" s="78"/>
       <c r="D28" s="77">
         <f>D27+B28-C28</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="107"/>
@@ -7119,7 +6938,7 @@
       <c r="C29" s="95"/>
       <c r="D29" s="77">
         <f>D28+B29-C29</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E29" s="83"/>
       <c r="F29" s="103"/>
@@ -7141,7 +6960,7 @@
       <c r="C30" s="78"/>
       <c r="D30" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="84"/>
@@ -7163,7 +6982,7 @@
       <c r="C31" s="78"/>
       <c r="D31" s="77">
         <f t="shared" si="0"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="14"/>
@@ -7185,7 +7004,7 @@
       <c r="C32" s="95"/>
       <c r="D32" s="77">
         <f>D31+B32-C32</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="106"/>
@@ -7207,7 +7026,7 @@
       <c r="C33" s="110"/>
       <c r="D33" s="77">
         <f t="shared" ref="D33:D82" si="1">D32+B33-C33</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E33" s="83"/>
       <c r="F33" s="83"/>
@@ -7229,7 +7048,7 @@
       <c r="C34" s="110"/>
       <c r="D34" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E34" s="83"/>
       <c r="F34" s="83"/>
@@ -7251,7 +7070,7 @@
       <c r="C35" s="110"/>
       <c r="D35" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E35" s="83"/>
       <c r="F35" s="13"/>
@@ -7273,7 +7092,7 @@
       <c r="C36" s="112"/>
       <c r="D36" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="113"/>
@@ -7295,7 +7114,7 @@
       <c r="C37" s="78"/>
       <c r="D37" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="80"/>
@@ -7317,7 +7136,7 @@
       <c r="C38" s="78"/>
       <c r="D38" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="84"/>
@@ -7339,7 +7158,7 @@
       <c r="C39" s="78"/>
       <c r="D39" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="113"/>
@@ -7361,7 +7180,7 @@
       <c r="C40" s="78"/>
       <c r="D40" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="79"/>
@@ -7383,7 +7202,7 @@
       <c r="C41" s="78"/>
       <c r="D41" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -7405,7 +7224,7 @@
       <c r="C42" s="114"/>
       <c r="D42" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E42" s="83"/>
       <c r="F42" s="83"/>
@@ -7427,7 +7246,7 @@
       <c r="C43" s="78"/>
       <c r="D43" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -7449,7 +7268,7 @@
       <c r="C44" s="115"/>
       <c r="D44" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E44" s="83"/>
       <c r="F44" s="13"/>
@@ -7471,7 +7290,7 @@
       <c r="C45" s="78"/>
       <c r="D45" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E45" s="84"/>
       <c r="F45" s="97"/>
@@ -7493,7 +7312,7 @@
       <c r="C46" s="78"/>
       <c r="D46" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E46" s="79"/>
       <c r="F46" s="116"/>
@@ -7515,7 +7334,7 @@
       <c r="C47" s="78"/>
       <c r="D47" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
@@ -7537,7 +7356,7 @@
       <c r="C48" s="78"/>
       <c r="D48" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E48" s="84"/>
       <c r="F48" s="14"/>
@@ -7559,7 +7378,7 @@
       <c r="C49" s="78"/>
       <c r="D49" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E49" s="79"/>
       <c r="F49" s="79"/>
@@ -7581,7 +7400,7 @@
       <c r="C50" s="78"/>
       <c r="D50" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E50" s="79"/>
       <c r="F50" s="84"/>
@@ -7603,7 +7422,7 @@
       <c r="C51" s="78"/>
       <c r="D51" s="77">
         <f>D50+B51-C51</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E51" s="79"/>
       <c r="F51" s="14"/>
@@ -7625,7 +7444,7 @@
       <c r="C52" s="78"/>
       <c r="D52" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E52" s="79"/>
       <c r="F52" s="84"/>
@@ -7647,7 +7466,7 @@
       <c r="C53" s="78"/>
       <c r="D53" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E53" s="84"/>
       <c r="F53" s="79"/>
@@ -7669,7 +7488,7 @@
       <c r="C54" s="78"/>
       <c r="D54" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E54" s="84"/>
       <c r="F54" s="84"/>
@@ -7691,7 +7510,7 @@
       <c r="C55" s="78"/>
       <c r="D55" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E55" s="79"/>
       <c r="F55" s="84"/>
@@ -7713,7 +7532,7 @@
       <c r="C56" s="78"/>
       <c r="D56" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E56" s="79"/>
       <c r="F56" s="79"/>
@@ -7735,7 +7554,7 @@
       <c r="C57" s="78"/>
       <c r="D57" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E57" s="84"/>
       <c r="F57" s="14"/>
@@ -7757,7 +7576,7 @@
       <c r="C58" s="78"/>
       <c r="D58" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E58" s="79"/>
       <c r="F58" s="84"/>
@@ -7779,7 +7598,7 @@
       <c r="C59" s="78"/>
       <c r="D59" s="77">
         <f>D58+B59-C59</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E59" s="79"/>
       <c r="F59" s="79"/>
@@ -7801,7 +7620,7 @@
       <c r="C60" s="78"/>
       <c r="D60" s="77">
         <f>D59+B60-C60</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="14"/>
@@ -7823,7 +7642,7 @@
       <c r="C61" s="78"/>
       <c r="D61" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E61" s="84"/>
       <c r="F61" s="14"/>
@@ -7845,7 +7664,7 @@
       <c r="C62" s="78"/>
       <c r="D62" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E62" s="79"/>
       <c r="F62" s="14"/>
@@ -7867,7 +7686,7 @@
       <c r="C63" s="78"/>
       <c r="D63" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E63" s="84"/>
       <c r="F63" s="14"/>
@@ -7889,7 +7708,7 @@
       <c r="C64" s="78"/>
       <c r="D64" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E64" s="79"/>
       <c r="F64" s="14"/>
@@ -7911,7 +7730,7 @@
       <c r="C65" s="78"/>
       <c r="D65" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E65" s="79"/>
       <c r="F65" s="14"/>
@@ -7933,7 +7752,7 @@
       <c r="C66" s="78"/>
       <c r="D66" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E66" s="79"/>
       <c r="F66" s="14"/>
@@ -7955,7 +7774,7 @@
       <c r="C67" s="78"/>
       <c r="D67" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E67" s="79"/>
       <c r="F67" s="79"/>
@@ -7977,7 +7796,7 @@
       <c r="C68" s="78"/>
       <c r="D68" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E68" s="79"/>
       <c r="F68" s="79"/>
@@ -7999,7 +7818,7 @@
       <c r="C69" s="78"/>
       <c r="D69" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E69" s="79"/>
       <c r="F69" s="14"/>
@@ -8021,7 +7840,7 @@
       <c r="C70" s="78"/>
       <c r="D70" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E70" s="79"/>
       <c r="F70" s="14"/>
@@ -8043,7 +7862,7 @@
       <c r="C71" s="78"/>
       <c r="D71" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E71" s="79"/>
       <c r="F71" s="14"/>
@@ -8065,7 +7884,7 @@
       <c r="C72" s="78"/>
       <c r="D72" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E72" s="79"/>
       <c r="F72" s="14"/>
@@ -8087,7 +7906,7 @@
       <c r="C73" s="78"/>
       <c r="D73" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="14"/>
@@ -8109,7 +7928,7 @@
       <c r="C74" s="78"/>
       <c r="D74" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E74" s="79"/>
       <c r="F74" s="14"/>
@@ -8131,7 +7950,7 @@
       <c r="C75" s="78"/>
       <c r="D75" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E75" s="97"/>
       <c r="F75" s="14"/>
@@ -8153,7 +7972,7 @@
       <c r="C76" s="78"/>
       <c r="D76" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E76" s="79"/>
       <c r="F76" s="14"/>
@@ -8175,7 +7994,7 @@
       <c r="C77" s="78"/>
       <c r="D77" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E77" s="79"/>
       <c r="F77" s="14"/>
@@ -8197,7 +8016,7 @@
       <c r="C78" s="78"/>
       <c r="D78" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E78" s="79"/>
       <c r="F78" s="14"/>
@@ -8219,7 +8038,7 @@
       <c r="C79" s="78"/>
       <c r="D79" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E79" s="79"/>
       <c r="F79" s="14"/>
@@ -8241,7 +8060,7 @@
       <c r="C80" s="78"/>
       <c r="D80" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
@@ -8263,7 +8082,7 @@
       <c r="C81" s="78"/>
       <c r="D81" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="14"/>
@@ -8285,7 +8104,7 @@
       <c r="C82" s="78"/>
       <c r="D82" s="77">
         <f t="shared" si="1"/>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="14"/>
@@ -8305,7 +8124,7 @@
       <c r="A83" s="118"/>
       <c r="B83" s="82">
         <f>SUM(B4:B72)</f>
-        <v>3305000</v>
+        <v>3640000</v>
       </c>
       <c r="C83" s="78">
         <f>SUM(C4:C77)</f>
@@ -8313,7 +8132,7 @@
       </c>
       <c r="D83" s="119">
         <f>D82</f>
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="18"/>
@@ -8361,8 +8180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8380,23 +8199,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="319" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="214"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="321"/>
       <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="21.75">
-      <c r="A2" s="215" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="217"/>
+      <c r="A2" s="322" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="324"/>
     </row>
     <row r="3" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="62" t="s">
@@ -8434,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="124">
-        <v>1200588</v>
+        <v>899118</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -8443,14 +8262,14 @@
         <v>8</v>
       </c>
       <c r="B6" s="46">
-        <v>10095</v>
+        <v>12741</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="58" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="124">
-        <v>209500</v>
+        <v>544500</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -8466,7 +8285,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="125">
-        <v>336000</v>
+        <v>265500</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -8476,14 +8295,14 @@
       </c>
       <c r="B8" s="59">
         <f>B6+B7</f>
-        <v>10095</v>
+        <v>12741</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="58" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="126">
-        <v>52433.560000000056</v>
+        <v>89424.185000000056</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -8492,7 +8311,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="59">
-        <v>10235.560000000001</v>
+        <v>12902.185000000001</v>
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="58" t="s">
@@ -8529,7 +8348,7 @@
       </c>
       <c r="B11" s="59">
         <f>B10+B9</f>
-        <v>10235.560000000001</v>
+        <v>12902.185000000001</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="58" t="s">
@@ -8550,7 +8369,7 @@
       </c>
       <c r="B12" s="67">
         <f>B11-B8</f>
-        <v>140.56000000000131</v>
+        <v>161.18500000000131</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="58" t="s">
@@ -8585,7 +8404,7 @@
       </c>
       <c r="B15" s="59">
         <f>B5+B12-B13</f>
-        <v>2000140.56</v>
+        <v>2000161.1850000001</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="58" t="s">
@@ -8593,7 +8412,7 @@
       </c>
       <c r="E15" s="126">
         <f>E5+E6+E7+E8+E9+E11+E12</f>
-        <v>2000140.56</v>
+        <v>2000161.1850000001</v>
       </c>
       <c r="F15" s="49"/>
     </row>
@@ -8606,11 +8425,11 @@
       <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:7" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="209"/>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="211"/>
+      <c r="A17" s="316"/>
+      <c r="B17" s="317"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="317"/>
+      <c r="E17" s="318"/>
       <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:7">
@@ -8767,291 +8586,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="26" ySplit="8" topLeftCell="AC36" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="219" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="219" customWidth="1"/>
-    <col min="3" max="3" width="15" style="219" customWidth="1"/>
-    <col min="4" max="4" width="11" style="219" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="219" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="10.42578125" style="219" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="219" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="219" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="219" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="219" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="219" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="219" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="219" customWidth="1"/>
-    <col min="17" max="18" width="10.42578125" style="219" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="219" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="219" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="219" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="219" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="219" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" style="219" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="219" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="219" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" style="219" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="219" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" style="219" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" style="219" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" style="219" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" style="219" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" style="219" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" style="219" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="14" style="219" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" style="219" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="10.140625" style="219" hidden="1" customWidth="1"/>
-    <col min="38" max="39" width="9.28515625" style="219" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="14.28515625" style="219" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="14.28515625" style="219" customWidth="1"/>
-    <col min="42" max="42" width="6.140625" style="219" customWidth="1"/>
-    <col min="43" max="43" width="8.140625" style="219" customWidth="1"/>
-    <col min="44" max="44" width="12" style="219" customWidth="1"/>
-    <col min="45" max="45" width="15.85546875" style="219" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.7109375" style="219" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.85546875" style="219" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.85546875" style="219" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="219"/>
+    <col min="1" max="1" width="6.7109375" style="178" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="178" customWidth="1"/>
+    <col min="3" max="3" width="15" style="178" customWidth="1"/>
+    <col min="4" max="4" width="11" style="178" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="178" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" style="178" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="178" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="178" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="178" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="178" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="178" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="178" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="178" customWidth="1"/>
+    <col min="17" max="18" width="10.42578125" style="178" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="178" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="178" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="178" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="178" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="178" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="178" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="178" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="178" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" style="178" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="178" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" style="178" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" style="178" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="178" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" style="178" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" style="178" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" style="178" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="14" style="178" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" style="178" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="10.140625" style="178" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="9.28515625" style="178" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="14.28515625" style="178" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="14.28515625" style="178" customWidth="1"/>
+    <col min="42" max="42" width="6.140625" style="178" customWidth="1"/>
+    <col min="43" max="43" width="8.140625" style="178" customWidth="1"/>
+    <col min="44" max="44" width="12" style="178" customWidth="1"/>
+    <col min="45" max="45" width="15.85546875" style="178" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" style="178" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.85546875" style="178" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.85546875" style="178" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="178"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="25.5" customHeight="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
-      <c r="S1" s="218"/>
-      <c r="T1" s="218"/>
-      <c r="U1" s="218"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="218"/>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="218"/>
-      <c r="AD1" s="218"/>
-      <c r="AE1" s="218"/>
-      <c r="AF1" s="218"/>
-      <c r="AG1" s="218"/>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="218"/>
-      <c r="AJ1" s="218"/>
-      <c r="AK1" s="218"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="218"/>
-      <c r="AN1" s="218"/>
-      <c r="AO1" s="218"/>
-      <c r="AP1" s="218"/>
-      <c r="AQ1" s="218"/>
-      <c r="AR1" s="218"/>
-      <c r="AS1" s="218"/>
-      <c r="AT1" s="218"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
+      <c r="R1" s="325"/>
+      <c r="S1" s="325"/>
+      <c r="T1" s="325"/>
+      <c r="U1" s="325"/>
+      <c r="V1" s="325"/>
+      <c r="W1" s="325"/>
+      <c r="X1" s="325"/>
+      <c r="Y1" s="325"/>
+      <c r="Z1" s="325"/>
+      <c r="AA1" s="325"/>
+      <c r="AB1" s="325"/>
+      <c r="AC1" s="325"/>
+      <c r="AD1" s="325"/>
+      <c r="AE1" s="325"/>
+      <c r="AF1" s="325"/>
+      <c r="AG1" s="325"/>
+      <c r="AH1" s="325"/>
+      <c r="AI1" s="325"/>
+      <c r="AJ1" s="325"/>
+      <c r="AK1" s="325"/>
+      <c r="AL1" s="325"/>
+      <c r="AM1" s="325"/>
+      <c r="AN1" s="325"/>
+      <c r="AO1" s="325"/>
+      <c r="AP1" s="325"/>
+      <c r="AQ1" s="325"/>
+      <c r="AR1" s="325"/>
+      <c r="AS1" s="325"/>
+      <c r="AT1" s="325"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="326" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
+      <c r="R2" s="326"/>
+      <c r="S2" s="326"/>
+      <c r="T2" s="326"/>
+      <c r="U2" s="326"/>
+      <c r="V2" s="326"/>
+      <c r="W2" s="326"/>
+      <c r="X2" s="326"/>
+      <c r="Y2" s="326"/>
+      <c r="Z2" s="326"/>
+      <c r="AA2" s="326"/>
+      <c r="AB2" s="326"/>
+      <c r="AC2" s="326"/>
+      <c r="AD2" s="326"/>
+      <c r="AE2" s="326"/>
+      <c r="AF2" s="326"/>
+      <c r="AG2" s="326"/>
+      <c r="AH2" s="326"/>
+      <c r="AI2" s="326"/>
+      <c r="AJ2" s="326"/>
+      <c r="AK2" s="326"/>
+      <c r="AL2" s="326"/>
+      <c r="AM2" s="326"/>
+      <c r="AN2" s="326"/>
+      <c r="AO2" s="326"/>
+      <c r="AP2" s="326"/>
+      <c r="AQ2" s="326"/>
+      <c r="AR2" s="326"/>
+      <c r="AS2" s="326"/>
+      <c r="AT2" s="326"/>
+    </row>
+    <row r="3" spans="1:56" ht="18.75">
+      <c r="A3" s="327" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="328"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="329"/>
+      <c r="R3" s="329"/>
+      <c r="S3" s="329"/>
+      <c r="T3" s="329"/>
+      <c r="U3" s="329"/>
+      <c r="V3" s="329"/>
+      <c r="W3" s="329"/>
+      <c r="X3" s="329"/>
+      <c r="Y3" s="329"/>
+      <c r="Z3" s="329"/>
+      <c r="AA3" s="329"/>
+      <c r="AB3" s="329"/>
+      <c r="AC3" s="329"/>
+      <c r="AD3" s="329"/>
+      <c r="AE3" s="329"/>
+      <c r="AF3" s="329"/>
+      <c r="AG3" s="329"/>
+      <c r="AH3" s="329"/>
+      <c r="AI3" s="329"/>
+      <c r="AJ3" s="329"/>
+      <c r="AK3" s="329"/>
+      <c r="AL3" s="329"/>
+      <c r="AM3" s="329"/>
+      <c r="AN3" s="329"/>
+      <c r="AO3" s="329"/>
+      <c r="AP3" s="329"/>
+      <c r="AQ3" s="329"/>
+      <c r="AR3" s="329"/>
+      <c r="AS3" s="329"/>
+      <c r="AT3" s="329"/>
+    </row>
+    <row r="4" spans="1:56">
+      <c r="A4" s="330" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="220"/>
-      <c r="AJ2" s="220"/>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
-      <c r="AM2" s="220"/>
-      <c r="AN2" s="220"/>
-      <c r="AO2" s="220"/>
-      <c r="AP2" s="220"/>
-      <c r="AQ2" s="220"/>
-      <c r="AR2" s="220"/>
-      <c r="AS2" s="220"/>
-      <c r="AT2" s="220"/>
-    </row>
-    <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="221" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223"/>
-      <c r="O3" s="223"/>
-      <c r="P3" s="223"/>
-      <c r="Q3" s="223"/>
-      <c r="R3" s="223"/>
-      <c r="S3" s="223"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="223"/>
-      <c r="AA3" s="223"/>
-      <c r="AB3" s="223"/>
-      <c r="AC3" s="223"/>
-      <c r="AD3" s="223"/>
-      <c r="AE3" s="223"/>
-      <c r="AF3" s="223"/>
-      <c r="AG3" s="223"/>
-      <c r="AH3" s="223"/>
-      <c r="AI3" s="223"/>
-      <c r="AJ3" s="223"/>
-      <c r="AK3" s="223"/>
-      <c r="AL3" s="223"/>
-      <c r="AM3" s="223"/>
-      <c r="AN3" s="223"/>
-      <c r="AO3" s="223"/>
-      <c r="AP3" s="223"/>
-      <c r="AQ3" s="223"/>
-      <c r="AR3" s="223"/>
-      <c r="AS3" s="223"/>
-      <c r="AT3" s="223"/>
-    </row>
-    <row r="4" spans="1:56">
-      <c r="A4" s="224" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225">
-        <v>618398</v>
-      </c>
-      <c r="E4" s="226">
-        <v>0</v>
-      </c>
-      <c r="F4" s="226">
-        <v>0</v>
-      </c>
-      <c r="G4" s="226">
-        <v>0</v>
-      </c>
-      <c r="H4" s="226">
-        <v>0</v>
-      </c>
-      <c r="I4" s="226">
-        <v>0</v>
-      </c>
-      <c r="J4" s="226">
-        <v>0</v>
-      </c>
-      <c r="K4" s="227">
-        <v>1830</v>
-      </c>
-      <c r="L4" s="227">
-        <v>0</v>
-      </c>
-      <c r="M4" s="224">
-        <v>310</v>
-      </c>
-      <c r="N4" s="224"/>
-      <c r="O4" s="227">
-        <v>1110</v>
-      </c>
-      <c r="P4" s="227">
-        <v>590</v>
-      </c>
-      <c r="Q4" s="226">
-        <v>0</v>
-      </c>
-      <c r="R4" s="226">
-        <v>0</v>
-      </c>
-      <c r="S4" s="226">
-        <v>338</v>
-      </c>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
-      <c r="W4" s="226"/>
-      <c r="X4" s="226"/>
-      <c r="Y4" s="226"/>
-      <c r="Z4" s="226">
+      <c r="B4" s="330"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179">
+        <v>900556</v>
+      </c>
+      <c r="E4" s="180">
+        <v>0</v>
+      </c>
+      <c r="F4" s="180">
+        <v>0</v>
+      </c>
+      <c r="G4" s="180">
+        <v>0</v>
+      </c>
+      <c r="H4" s="180">
+        <v>0</v>
+      </c>
+      <c r="I4" s="180">
+        <v>0</v>
+      </c>
+      <c r="J4" s="180">
+        <v>0</v>
+      </c>
+      <c r="K4" s="181">
+        <v>1380</v>
+      </c>
+      <c r="L4" s="181">
+        <v>0</v>
+      </c>
+      <c r="M4" s="330">
+        <v>3620</v>
+      </c>
+      <c r="N4" s="330"/>
+      <c r="O4" s="181">
+        <v>1520</v>
+      </c>
+      <c r="P4" s="181">
+        <v>3500</v>
+      </c>
+      <c r="Q4" s="180">
+        <v>0</v>
+      </c>
+      <c r="R4" s="180">
+        <v>0</v>
+      </c>
+      <c r="S4" s="180">
+        <v>482</v>
+      </c>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="180"/>
+      <c r="Y4" s="180"/>
+      <c r="Z4" s="180">
         <v>290</v>
       </c>
-      <c r="AA4" s="226">
-        <v>499</v>
-      </c>
-      <c r="AB4" s="226"/>
-      <c r="AC4" s="228"/>
-      <c r="AD4" s="228"/>
-      <c r="AE4" s="228"/>
-      <c r="AF4" s="228"/>
-      <c r="AG4" s="228"/>
-      <c r="AH4" s="228"/>
-      <c r="AI4" s="228"/>
-      <c r="AJ4" s="228"/>
-      <c r="AK4" s="228"/>
-      <c r="AL4" s="228"/>
-      <c r="AM4" s="228"/>
-      <c r="AN4" s="228"/>
-      <c r="AO4" s="228"/>
-      <c r="AP4" s="228"/>
-      <c r="AQ4" s="228"/>
-      <c r="AR4" s="228"/>
-      <c r="AS4" s="228"/>
-      <c r="AT4" s="228"/>
+      <c r="AA4" s="180">
+        <v>436</v>
+      </c>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="331"/>
+      <c r="AD4" s="331"/>
+      <c r="AE4" s="331"/>
+      <c r="AF4" s="331"/>
+      <c r="AG4" s="331"/>
+      <c r="AH4" s="331"/>
+      <c r="AI4" s="331"/>
+      <c r="AJ4" s="331"/>
+      <c r="AK4" s="331"/>
+      <c r="AL4" s="331"/>
+      <c r="AM4" s="331"/>
+      <c r="AN4" s="331"/>
+      <c r="AO4" s="331"/>
+      <c r="AP4" s="331"/>
+      <c r="AQ4" s="331"/>
+      <c r="AR4" s="331"/>
+      <c r="AS4" s="331"/>
+      <c r="AT4" s="331"/>
       <c r="AV4" s="100"/>
       <c r="AW4" s="100"/>
       <c r="AX4" s="100"/>
@@ -9063,64 +8886,54 @@
       <c r="BD4" s="100"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="224" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225">
-        <v>508831</v>
-      </c>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="227"/>
-      <c r="M5" s="227">
-        <v>5000</v>
-      </c>
-      <c r="N5" s="227"/>
-      <c r="O5" s="227">
-        <v>530</v>
-      </c>
-      <c r="P5" s="227">
-        <v>5000</v>
-      </c>
-      <c r="Q5" s="226"/>
-      <c r="R5" s="226"/>
-      <c r="S5" s="226">
-        <v>500</v>
-      </c>
-      <c r="T5" s="226"/>
-      <c r="U5" s="226"/>
-      <c r="V5" s="226"/>
-      <c r="W5" s="226"/>
-      <c r="X5" s="226"/>
-      <c r="Y5" s="226"/>
-      <c r="Z5" s="226"/>
-      <c r="AA5" s="226"/>
-      <c r="AB5" s="226"/>
-      <c r="AC5" s="228"/>
-      <c r="AD5" s="228"/>
-      <c r="AE5" s="228"/>
-      <c r="AF5" s="228"/>
-      <c r="AG5" s="228"/>
-      <c r="AH5" s="228"/>
-      <c r="AI5" s="228"/>
-      <c r="AJ5" s="228"/>
-      <c r="AK5" s="228"/>
-      <c r="AL5" s="228"/>
-      <c r="AM5" s="228"/>
-      <c r="AN5" s="228"/>
-      <c r="AO5" s="228"/>
-      <c r="AP5" s="228"/>
-      <c r="AQ5" s="228"/>
-      <c r="AR5" s="228"/>
-      <c r="AS5" s="228"/>
-      <c r="AT5" s="228"/>
+      <c r="A5" s="330" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="330"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="180"/>
+      <c r="Y5" s="180"/>
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="331"/>
+      <c r="AD5" s="331"/>
+      <c r="AE5" s="331"/>
+      <c r="AF5" s="331"/>
+      <c r="AG5" s="331"/>
+      <c r="AH5" s="331"/>
+      <c r="AI5" s="331"/>
+      <c r="AJ5" s="331"/>
+      <c r="AK5" s="331"/>
+      <c r="AL5" s="331"/>
+      <c r="AM5" s="331"/>
+      <c r="AN5" s="331"/>
+      <c r="AO5" s="331"/>
+      <c r="AP5" s="331"/>
+      <c r="AQ5" s="331"/>
+      <c r="AR5" s="331"/>
+      <c r="AS5" s="331"/>
+      <c r="AT5" s="331"/>
       <c r="AV5" s="100"/>
       <c r="AW5" s="100"/>
       <c r="AX5" s="100"/>
@@ -9131,254 +8944,260 @@
       <c r="BC5" s="100"/>
       <c r="BD5" s="100"/>
     </row>
-    <row r="6" spans="1:56" s="252" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A6" s="229" t="s">
+    <row r="6" spans="1:56" s="205" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A6" s="182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="183" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="230" t="s">
+      <c r="D6" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="231" t="s">
+      <c r="E6" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="232" t="s">
+      <c r="F6" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="233" t="s">
+      <c r="G6" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="234" t="s">
+      <c r="H6" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="233" t="s">
+      <c r="I6" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="234" t="s">
+      <c r="J6" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="234" t="s">
+      <c r="K6" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="235" t="s">
+      <c r="L6" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="236" t="s">
+      <c r="M6" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="234" t="s">
+      <c r="N6" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="237" t="s">
+      <c r="O6" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="234" t="s">
+      <c r="P6" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="238" t="s">
+      <c r="Q6" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="239" t="s">
+      <c r="R6" s="185" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="231" t="s">
+      <c r="S6" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="232" t="s">
+      <c r="T6" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="240" t="s">
+      <c r="U6" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="240" t="s">
+      <c r="V6" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="U6" s="240" t="s">
+      <c r="W6" s="195" t="s">
         <v>80</v>
       </c>
-      <c r="V6" s="241" t="s">
+      <c r="X6" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="242" t="s">
+      <c r="Y6" s="195" t="s">
         <v>82</v>
       </c>
-      <c r="X6" s="242" t="s">
+      <c r="Z6" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="242" t="s">
+      <c r="AA6" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="Z6" s="242" t="s">
+      <c r="AB6" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="242" t="s">
+      <c r="AC6" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="AB6" s="242" t="s">
+      <c r="AD6" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="AC6" s="243" t="s">
+      <c r="AE6" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="AD6" s="233" t="s">
+      <c r="AF6" s="198" t="s">
         <v>89</v>
       </c>
-      <c r="AE6" s="244" t="s">
+      <c r="AG6" s="197" t="s">
         <v>90</v>
       </c>
-      <c r="AF6" s="245" t="s">
+      <c r="AH6" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="AG6" s="244" t="s">
+      <c r="AI6" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="AH6" s="245" t="s">
+      <c r="AJ6" s="193" t="s">
         <v>93</v>
       </c>
-      <c r="AI6" s="245" t="s">
+      <c r="AK6" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="AJ6" s="240" t="s">
+      <c r="AL6" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="AK6" s="246" t="s">
+      <c r="AM6" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="AL6" s="246" t="s">
+      <c r="AN6" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="AM6" s="246" t="s">
+      <c r="AO6" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="AN6" s="240" t="s">
+      <c r="AP6" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="AO6" s="240" t="s">
+      <c r="AQ6" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="AP6" s="241" t="s">
+      <c r="AR6" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="AQ6" s="247" t="s">
+      <c r="AS6" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="AR6" s="248" t="s">
+      <c r="AT6" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="AS6" s="249" t="s">
+      <c r="AU6" s="204"/>
+      <c r="AV6" s="204"/>
+      <c r="AW6" s="204"/>
+      <c r="AX6" s="204"/>
+      <c r="AY6" s="204"/>
+      <c r="AZ6" s="204"/>
+      <c r="BA6" s="204"/>
+      <c r="BB6" s="204"/>
+      <c r="BC6" s="204"/>
+      <c r="BD6" s="204"/>
+    </row>
+    <row r="7" spans="1:56" ht="15.75">
+      <c r="A7" s="206">
+        <v>1</v>
+      </c>
+      <c r="B7" s="207">
+        <v>1908446134</v>
+      </c>
+      <c r="C7" s="207" t="s">
         <v>104</v>
       </c>
-      <c r="AT6" s="250" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU6" s="251"/>
-      <c r="AV6" s="251"/>
-      <c r="AW6" s="251"/>
-      <c r="AX6" s="251"/>
-      <c r="AY6" s="251"/>
-      <c r="AZ6" s="251"/>
-      <c r="BA6" s="251"/>
-      <c r="BB6" s="251"/>
-      <c r="BC6" s="251"/>
-      <c r="BD6" s="251"/>
-    </row>
-    <row r="7" spans="1:56" ht="15.75">
-      <c r="A7" s="253">
+      <c r="D7" s="208">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="209"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="209"/>
+      <c r="M7" s="209">
+        <v>300</v>
+      </c>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209">
+        <v>350</v>
+      </c>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="210"/>
+      <c r="S7" s="210">
+        <v>17</v>
+      </c>
+      <c r="T7" s="210"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="210"/>
+      <c r="Y7" s="210"/>
+      <c r="Z7" s="210">
         <v>1</v>
       </c>
-      <c r="B7" s="254">
-        <v>1908446134</v>
-      </c>
-      <c r="C7" s="254" t="s">
+      <c r="AA7" s="210">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="210"/>
+      <c r="AC7" s="211">
+        <f t="shared" ref="AC7:AC27" si="0">D7*1+E7*999+F7*499+G7*75+H7*50+I7*30+K7*20+L7*19+M7*10+P7*9+N7*10+J7*29+S7*191+V7*4744+W7*110+X7*450+Y7*110+Z7*191+AA7*188+AB7*182+U7*30+T7*350+R7*4+Q7*5+O7*9</f>
+        <v>25528</v>
+      </c>
+      <c r="AD7" s="210">
+        <f t="shared" ref="AD7:AD28" si="1">D7*1</f>
+        <v>15000</v>
+      </c>
+      <c r="AE7" s="212">
+        <f t="shared" ref="AE7:AE28" si="2">D7*2.75%</f>
+        <v>412.5</v>
+      </c>
+      <c r="AF7" s="212">
+        <f t="shared" ref="AF7:AF28" si="3">AD7*0.95%</f>
+        <v>142.5</v>
+      </c>
+      <c r="AG7" s="212">
+        <f>SUM(E7*999+F7*499+G7*75+H7*50+I7*30+K7*20+L7*19+M7*10+P7*9+N7*10+J7*29+R7*4+Q7*5+O7*9)*2.8%</f>
+        <v>172.2</v>
+      </c>
+      <c r="AH7" s="212">
+        <f t="shared" ref="AH7:AH28" si="4">SUM(E7*999+F7*499+G7*75+H7*50+I7*30+J7*29+K7*20+L7*19+M7*10+N7*10+O7*9+P7*9+Q7*5+R7*4)*0.95%</f>
+        <v>58.424999999999997</v>
+      </c>
+      <c r="AI7" s="212">
+        <f>V7*0+W7*0+Y7*0+Z7*0+U7*0+AA7*0+AB7*9+S7*0</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="213"/>
+      <c r="AK7" s="213"/>
+      <c r="AL7" s="213"/>
+      <c r="AM7" s="213"/>
+      <c r="AN7" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="214">
+        <f>SUM(D7:P7)*2.75%</f>
+        <v>430.375</v>
+      </c>
+      <c r="AP7" s="215"/>
+      <c r="AQ7" s="216">
         <v>106</v>
       </c>
-      <c r="D7" s="255">
-        <v>10443</v>
-      </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="256"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="256"/>
-      <c r="Q7" s="257"/>
-      <c r="R7" s="257"/>
-      <c r="S7" s="257">
-        <v>25</v>
-      </c>
-      <c r="T7" s="257"/>
-      <c r="U7" s="257"/>
-      <c r="V7" s="257"/>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="257"/>
-      <c r="AA7" s="257">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="257"/>
-      <c r="AC7" s="258">
-        <f t="shared" ref="AC7:AC27" si="0">D7*1+E7*999+F7*499+G7*75+H7*50+I7*30+K7*20+L7*19+M7*10+P7*9+N7*10+J7*29+S7*191+V7*4744+W7*110+X7*450+Y7*110+Z7*191+AA7*188+AB7*182+U7*30+T7*350+R7*4+Q7*5+O7*9</f>
-        <v>15782</v>
-      </c>
-      <c r="AD7" s="257">
-        <f t="shared" ref="AD7:AD28" si="1">D7*1</f>
-        <v>10443</v>
-      </c>
-      <c r="AE7" s="259">
-        <f t="shared" ref="AE7:AE28" si="2">D7*2.75%</f>
-        <v>287.1825</v>
-      </c>
-      <c r="AF7" s="259">
-        <f t="shared" ref="AF7:AF28" si="3">AD7*0.95%</f>
-        <v>99.208500000000001</v>
-      </c>
-      <c r="AG7" s="259">
-        <f>SUM(E7*999+F7*499+G7*75+H7*50+I7*30+K7*20+L7*19+M7*10+P7*9+N7*10+J7*29+R7*4+Q7*5+O7*9)*2.8%</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="259">
-        <f t="shared" ref="AH7:AH28" si="4">SUM(E7*999+F7*499+G7*75+H7*50+I7*30+J7*29+K7*20+L7*19+M7*10+N7*10+O7*9+P7*9+Q7*5+R7*4)*0.95%</f>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="259">
-        <f>V7*0+W7*0+Y7*0+Z7*0+U7*0+AA7*0+AB7*9+S7*0</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="260"/>
-      <c r="AK7" s="260"/>
-      <c r="AL7" s="260"/>
-      <c r="AM7" s="260"/>
-      <c r="AN7" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="261">
-        <f>SUM(D7:P7)*2.75%</f>
-        <v>287.1825</v>
-      </c>
-      <c r="AP7" s="262"/>
-      <c r="AQ7" s="263">
-        <v>95</v>
-      </c>
-      <c r="AR7" s="264">
+      <c r="AR7" s="217">
         <f>AC7-AE7-AG7-AJ7-AK7-AL7-AM7-AN7-AP7-AQ7</f>
-        <v>15399.817499999999</v>
-      </c>
-      <c r="AS7" s="265">
+        <v>24837.3</v>
+      </c>
+      <c r="AS7" s="218">
         <f t="shared" ref="AS7:AS19" si="5">AF7+AH7+AI7</f>
-        <v>99.208500000000001</v>
-      </c>
-      <c r="AT7" s="266">
+        <v>200.92500000000001</v>
+      </c>
+      <c r="AT7" s="219">
         <f t="shared" ref="AT7:AT19" si="6">AS7-AQ7-AN7</f>
-        <v>4.2085000000000008</v>
-      </c>
-      <c r="AU7" s="267" t="s">
-        <v>107</v>
+        <v>94.925000000000011</v>
+      </c>
+      <c r="AU7" s="220" t="s">
+        <v>140</v>
       </c>
       <c r="AV7" s="108"/>
       <c r="AW7" s="100"/>
@@ -9391,105 +9210,103 @@
       <c r="BD7" s="100"/>
     </row>
     <row r="8" spans="1:56" ht="15.75">
-      <c r="A8" s="268">
+      <c r="A8" s="221">
         <v>2</v>
       </c>
-      <c r="B8" s="254">
+      <c r="B8" s="207">
         <v>1908446135</v>
       </c>
-      <c r="C8" s="257" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="269">
-        <v>5654</v>
-      </c>
-      <c r="E8" s="270"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="270"/>
-      <c r="H8" s="270"/>
-      <c r="I8" s="270"/>
-      <c r="J8" s="270"/>
-      <c r="K8" s="270">
-        <v>70</v>
-      </c>
-      <c r="L8" s="270"/>
-      <c r="M8" s="270">
-        <v>170</v>
-      </c>
-      <c r="N8" s="270"/>
-      <c r="O8" s="270"/>
-      <c r="P8" s="270">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="254"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="254"/>
-      <c r="W8" s="254"/>
-      <c r="X8" s="254"/>
-      <c r="Y8" s="254"/>
-      <c r="Z8" s="254"/>
-      <c r="AA8" s="254"/>
-      <c r="AB8" s="254"/>
-      <c r="AC8" s="258">
+      <c r="C8" s="210" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="222">
+        <v>10483</v>
+      </c>
+      <c r="E8" s="223"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223">
+        <v>10</v>
+      </c>
+      <c r="N8" s="223"/>
+      <c r="O8" s="223"/>
+      <c r="P8" s="223">
+        <v>180</v>
+      </c>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207"/>
+      <c r="U8" s="207"/>
+      <c r="V8" s="207"/>
+      <c r="W8" s="207"/>
+      <c r="X8" s="207"/>
+      <c r="Y8" s="207"/>
+      <c r="Z8" s="207"/>
+      <c r="AA8" s="207"/>
+      <c r="AB8" s="207"/>
+      <c r="AC8" s="211">
         <f t="shared" si="0"/>
-        <v>9384</v>
-      </c>
-      <c r="AD8" s="254">
+        <v>12203</v>
+      </c>
+      <c r="AD8" s="207">
         <f t="shared" si="1"/>
-        <v>5654</v>
-      </c>
-      <c r="AE8" s="271">
+        <v>10483</v>
+      </c>
+      <c r="AE8" s="224">
         <f t="shared" si="2"/>
-        <v>155.48500000000001</v>
-      </c>
-      <c r="AF8" s="271">
+        <v>288.28250000000003</v>
+      </c>
+      <c r="AF8" s="224">
         <f t="shared" si="3"/>
-        <v>53.713000000000001</v>
-      </c>
-      <c r="AG8" s="259">
+        <v>99.588499999999996</v>
+      </c>
+      <c r="AG8" s="212">
         <f t="shared" ref="AG8:AG28" si="7">SUM(E8*999+F8*499+G8*75+H8*50+I8*30+K8*20+L8*19+M8*10+P8*9+N8*10+J8*29+R8*4+Q8*5+O8*9)*2.75%</f>
-        <v>102.575</v>
-      </c>
-      <c r="AH8" s="271">
+        <v>47.3</v>
+      </c>
+      <c r="AH8" s="224">
         <f t="shared" si="4"/>
-        <v>35.435000000000002</v>
-      </c>
-      <c r="AI8" s="271">
+        <v>16.34</v>
+      </c>
+      <c r="AI8" s="224">
         <f t="shared" ref="AI8:AI28" si="8">V8*0+W8*0+Y8*0+Z8*0+U8*0+AA8*0+AB8*9+S8*0</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="272"/>
-      <c r="AK8" s="272"/>
-      <c r="AL8" s="272"/>
-      <c r="AM8" s="272"/>
-      <c r="AN8" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="261">
+      <c r="AJ8" s="225"/>
+      <c r="AK8" s="225"/>
+      <c r="AL8" s="225"/>
+      <c r="AM8" s="225"/>
+      <c r="AN8" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="214">
         <f t="shared" ref="AO8:AO28" si="9">SUM(D8:P8)*2.75%</f>
-        <v>164.01</v>
-      </c>
-      <c r="AP8" s="273"/>
-      <c r="AQ8" s="263">
-        <v>90</v>
-      </c>
-      <c r="AR8" s="264">
+        <v>293.50749999999999</v>
+      </c>
+      <c r="AP8" s="226"/>
+      <c r="AQ8" s="216">
+        <v>115</v>
+      </c>
+      <c r="AR8" s="217">
         <f t="shared" ref="AR8:AR28" si="10">AC8-AE8-AG8-AJ8-AK8-AL8-AM8-AN8-AP8-AQ8</f>
-        <v>9035.9399999999987</v>
-      </c>
-      <c r="AS8" s="274">
+        <v>11752.417500000001</v>
+      </c>
+      <c r="AS8" s="227">
         <f t="shared" si="5"/>
-        <v>89.147999999999996</v>
-      </c>
-      <c r="AT8" s="275">
+        <v>115.9285</v>
+      </c>
+      <c r="AT8" s="228">
         <f t="shared" si="6"/>
-        <v>-0.85200000000000387</v>
+        <v>0.92849999999999966</v>
       </c>
       <c r="AU8" s="100"/>
-      <c r="AV8" s="276"/>
+      <c r="AV8" s="229"/>
       <c r="AW8" s="100"/>
       <c r="AX8" s="100"/>
       <c r="AY8" s="100"/>
@@ -9500,109 +9317,111 @@
       <c r="BD8" s="100"/>
     </row>
     <row r="9" spans="1:56" ht="15.75">
-      <c r="A9" s="268">
+      <c r="A9" s="221">
         <v>3</v>
       </c>
-      <c r="B9" s="254">
+      <c r="B9" s="207">
         <v>1908446136</v>
       </c>
-      <c r="C9" s="254" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="269">
-        <v>14193</v>
-      </c>
-      <c r="E9" s="270"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
-      <c r="H9" s="270"/>
-      <c r="I9" s="270"/>
-      <c r="J9" s="270"/>
-      <c r="K9" s="270">
+      <c r="C9" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="222">
+        <v>17487</v>
+      </c>
+      <c r="E9" s="223"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223">
         <v>30</v>
       </c>
-      <c r="L9" s="270"/>
-      <c r="M9" s="270">
-        <v>20</v>
-      </c>
-      <c r="N9" s="270"/>
-      <c r="O9" s="270"/>
-      <c r="P9" s="270">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="254"/>
-      <c r="R9" s="254"/>
-      <c r="S9" s="254">
-        <v>45</v>
-      </c>
-      <c r="T9" s="254"/>
-      <c r="U9" s="254"/>
-      <c r="V9" s="254"/>
-      <c r="W9" s="254"/>
-      <c r="X9" s="254"/>
-      <c r="Y9" s="254"/>
-      <c r="Z9" s="254"/>
-      <c r="AA9" s="254">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="254"/>
-      <c r="AC9" s="258">
+      <c r="L9" s="223"/>
+      <c r="M9" s="223">
+        <v>30</v>
+      </c>
+      <c r="N9" s="223"/>
+      <c r="O9" s="223">
+        <v>10</v>
+      </c>
+      <c r="P9" s="223">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="207"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="207">
+        <v>25</v>
+      </c>
+      <c r="T9" s="207"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
+      <c r="W9" s="207"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="207"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="207">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="211">
         <f t="shared" si="0"/>
-        <v>25068</v>
-      </c>
-      <c r="AD9" s="254">
+        <v>28128</v>
+      </c>
+      <c r="AD9" s="207">
         <f t="shared" si="1"/>
-        <v>14193</v>
-      </c>
-      <c r="AE9" s="271">
+        <v>17487</v>
+      </c>
+      <c r="AE9" s="224">
         <f t="shared" si="2"/>
-        <v>390.3075</v>
-      </c>
-      <c r="AF9" s="271">
+        <v>480.89249999999998</v>
+      </c>
+      <c r="AF9" s="224">
         <f t="shared" si="3"/>
-        <v>134.83349999999999</v>
-      </c>
-      <c r="AG9" s="259">
+        <v>166.12649999999999</v>
+      </c>
+      <c r="AG9" s="212">
         <f t="shared" si="7"/>
-        <v>36.85</v>
-      </c>
-      <c r="AH9" s="271">
+        <v>150.97499999999999</v>
+      </c>
+      <c r="AH9" s="224">
         <f t="shared" si="4"/>
-        <v>12.73</v>
-      </c>
-      <c r="AI9" s="271">
+        <v>52.155000000000001</v>
+      </c>
+      <c r="AI9" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="272"/>
-      <c r="AK9" s="272"/>
-      <c r="AL9" s="272"/>
-      <c r="AM9" s="272"/>
-      <c r="AN9" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="261">
+      <c r="AJ9" s="225"/>
+      <c r="AK9" s="225"/>
+      <c r="AL9" s="225"/>
+      <c r="AM9" s="225"/>
+      <c r="AN9" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="214">
         <f t="shared" si="9"/>
-        <v>393.33249999999998</v>
-      </c>
-      <c r="AP9" s="273"/>
-      <c r="AQ9" s="263">
-        <v>120</v>
-      </c>
-      <c r="AR9" s="264">
+        <v>496.5675</v>
+      </c>
+      <c r="AP9" s="226"/>
+      <c r="AQ9" s="216">
+        <v>147</v>
+      </c>
+      <c r="AR9" s="217">
         <f t="shared" si="10"/>
-        <v>24520.842500000002</v>
-      </c>
-      <c r="AS9" s="274">
+        <v>27349.1325</v>
+      </c>
+      <c r="AS9" s="227">
         <f t="shared" si="5"/>
-        <v>147.56349999999998</v>
-      </c>
-      <c r="AT9" s="275">
+        <v>218.28149999999999</v>
+      </c>
+      <c r="AT9" s="228">
         <f t="shared" si="6"/>
-        <v>27.563499999999976</v>
+        <v>71.281499999999994</v>
       </c>
       <c r="AU9" s="100"/>
-      <c r="AV9" s="277"/>
+      <c r="AV9" s="230"/>
       <c r="AW9" s="85"/>
       <c r="AX9" s="85"/>
       <c r="AY9" s="85"/>
@@ -9613,103 +9432,101 @@
       <c r="BD9" s="100"/>
     </row>
     <row r="10" spans="1:56" ht="12.75" customHeight="1">
-      <c r="A10" s="268">
+      <c r="A10" s="221">
         <v>4</v>
       </c>
-      <c r="B10" s="254">
+      <c r="B10" s="207">
         <v>1908446137</v>
       </c>
-      <c r="C10" s="254" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="269">
-        <v>5265</v>
-      </c>
-      <c r="E10" s="270"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="270"/>
-      <c r="I10" s="270"/>
-      <c r="J10" s="270"/>
-      <c r="K10" s="270"/>
-      <c r="L10" s="270"/>
-      <c r="M10" s="270">
+      <c r="C10" s="207" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="222">
+        <v>5093</v>
+      </c>
+      <c r="E10" s="223"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
+      <c r="P10" s="223">
         <v>50</v>
       </c>
-      <c r="N10" s="270"/>
-      <c r="O10" s="270"/>
-      <c r="P10" s="270">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="254"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="254"/>
-      <c r="V10" s="254"/>
-      <c r="W10" s="254"/>
-      <c r="X10" s="254"/>
-      <c r="Y10" s="254"/>
-      <c r="Z10" s="254"/>
-      <c r="AA10" s="254"/>
-      <c r="AB10" s="254"/>
-      <c r="AC10" s="258">
+      <c r="Q10" s="207"/>
+      <c r="R10" s="207"/>
+      <c r="S10" s="207"/>
+      <c r="T10" s="207"/>
+      <c r="U10" s="207"/>
+      <c r="V10" s="207"/>
+      <c r="W10" s="207"/>
+      <c r="X10" s="207"/>
+      <c r="Y10" s="207"/>
+      <c r="Z10" s="207"/>
+      <c r="AA10" s="207"/>
+      <c r="AB10" s="207"/>
+      <c r="AC10" s="211">
         <f t="shared" si="0"/>
-        <v>7475</v>
-      </c>
-      <c r="AD10" s="254">
+        <v>5543</v>
+      </c>
+      <c r="AD10" s="207">
         <f>D10*1</f>
-        <v>5265</v>
-      </c>
-      <c r="AE10" s="271">
+        <v>5093</v>
+      </c>
+      <c r="AE10" s="224">
         <f>D10*2.75%</f>
-        <v>144.78749999999999</v>
-      </c>
-      <c r="AF10" s="271">
+        <v>140.0575</v>
+      </c>
+      <c r="AF10" s="224">
         <f>AD10*0.95%</f>
-        <v>50.017499999999998</v>
-      </c>
-      <c r="AG10" s="259">
+        <v>48.383499999999998</v>
+      </c>
+      <c r="AG10" s="212">
         <f t="shared" si="7"/>
-        <v>60.774999999999999</v>
-      </c>
-      <c r="AH10" s="271">
+        <v>12.375</v>
+      </c>
+      <c r="AH10" s="224">
         <f t="shared" si="4"/>
-        <v>20.995000000000001</v>
-      </c>
-      <c r="AI10" s="271">
+        <v>4.2749999999999995</v>
+      </c>
+      <c r="AI10" s="224">
         <f>V10*0+W10*0+Y10*0+Z10*0+U10*0+AA10*0+AB10*9+S10*0</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="272"/>
-      <c r="AK10" s="272"/>
-      <c r="AL10" s="272"/>
-      <c r="AM10" s="272"/>
-      <c r="AN10" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="261">
+      <c r="AJ10" s="225"/>
+      <c r="AK10" s="225"/>
+      <c r="AL10" s="225"/>
+      <c r="AM10" s="225"/>
+      <c r="AN10" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="214">
         <f t="shared" si="9"/>
-        <v>151.38749999999999</v>
-      </c>
-      <c r="AP10" s="273"/>
-      <c r="AQ10" s="263">
-        <v>30</v>
-      </c>
-      <c r="AR10" s="264">
+        <v>141.4325</v>
+      </c>
+      <c r="AP10" s="226"/>
+      <c r="AQ10" s="216">
+        <v>40</v>
+      </c>
+      <c r="AR10" s="217">
         <f t="shared" si="10"/>
-        <v>7239.4375</v>
-      </c>
-      <c r="AS10" s="274">
+        <v>5350.5675000000001</v>
+      </c>
+      <c r="AS10" s="227">
         <f>AF10+AH10+AI10</f>
-        <v>71.012500000000003</v>
-      </c>
-      <c r="AT10" s="275">
+        <v>52.658499999999997</v>
+      </c>
+      <c r="AT10" s="228">
         <f>AS10-AQ10-AN10</f>
-        <v>41.012500000000003</v>
+        <v>12.658499999999997</v>
       </c>
       <c r="AU10" s="100"/>
-      <c r="AV10" s="277"/>
+      <c r="AV10" s="230"/>
       <c r="AW10" s="85"/>
       <c r="AX10" s="85"/>
       <c r="AY10" s="85"/>
@@ -9720,99 +9537,99 @@
       <c r="BD10" s="100"/>
     </row>
     <row r="11" spans="1:56" ht="15.75">
-      <c r="A11" s="268">
+      <c r="A11" s="221">
         <v>5</v>
       </c>
-      <c r="B11" s="254">
+      <c r="B11" s="207">
         <v>1908446138</v>
       </c>
-      <c r="C11" s="278" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="269">
-        <v>4541</v>
-      </c>
-      <c r="E11" s="270"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
-      <c r="H11" s="270"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="270"/>
-      <c r="K11" s="270"/>
-      <c r="L11" s="270"/>
-      <c r="M11" s="270"/>
-      <c r="N11" s="270"/>
-      <c r="O11" s="279"/>
-      <c r="P11" s="270"/>
-      <c r="Q11" s="254"/>
-      <c r="R11" s="254"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="254"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="254"/>
-      <c r="W11" s="254"/>
-      <c r="X11" s="254"/>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="254"/>
-      <c r="AC11" s="258">
+      <c r="C11" s="231" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="222">
+        <v>5309</v>
+      </c>
+      <c r="E11" s="223"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="232"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="207"/>
+      <c r="R11" s="207"/>
+      <c r="S11" s="207"/>
+      <c r="T11" s="207"/>
+      <c r="U11" s="207"/>
+      <c r="V11" s="207"/>
+      <c r="W11" s="207"/>
+      <c r="X11" s="207"/>
+      <c r="Y11" s="207"/>
+      <c r="Z11" s="207"/>
+      <c r="AA11" s="207"/>
+      <c r="AB11" s="207"/>
+      <c r="AC11" s="211">
         <f t="shared" si="0"/>
-        <v>4541</v>
-      </c>
-      <c r="AD11" s="254">
+        <v>5309</v>
+      </c>
+      <c r="AD11" s="207">
         <f t="shared" si="1"/>
-        <v>4541</v>
-      </c>
-      <c r="AE11" s="271">
+        <v>5309</v>
+      </c>
+      <c r="AE11" s="224">
         <f t="shared" si="2"/>
-        <v>124.8775</v>
-      </c>
-      <c r="AF11" s="271">
+        <v>145.9975</v>
+      </c>
+      <c r="AF11" s="224">
         <f t="shared" si="3"/>
-        <v>43.139499999999998</v>
-      </c>
-      <c r="AG11" s="259">
+        <v>50.435499999999998</v>
+      </c>
+      <c r="AG11" s="212">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="271">
+      <c r="AH11" s="224">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="271">
+      <c r="AI11" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="272"/>
-      <c r="AK11" s="272"/>
-      <c r="AL11" s="272"/>
-      <c r="AM11" s="272"/>
-      <c r="AN11" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="261">
+      <c r="AJ11" s="225"/>
+      <c r="AK11" s="225"/>
+      <c r="AL11" s="225"/>
+      <c r="AM11" s="225"/>
+      <c r="AN11" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="214">
         <f t="shared" si="9"/>
-        <v>124.8775</v>
-      </c>
-      <c r="AP11" s="273"/>
-      <c r="AQ11" s="263">
-        <v>376</v>
-      </c>
-      <c r="AR11" s="264">
+        <v>145.9975</v>
+      </c>
+      <c r="AP11" s="226"/>
+      <c r="AQ11" s="216">
+        <v>33</v>
+      </c>
+      <c r="AR11" s="217">
         <f t="shared" si="10"/>
-        <v>4040.1225000000004</v>
-      </c>
-      <c r="AS11" s="274">
+        <v>5130.0024999999996</v>
+      </c>
+      <c r="AS11" s="227">
         <f t="shared" si="5"/>
-        <v>43.139499999999998</v>
-      </c>
-      <c r="AT11" s="275">
+        <v>50.435499999999998</v>
+      </c>
+      <c r="AT11" s="228">
         <f t="shared" si="6"/>
-        <v>-332.8605</v>
+        <v>17.435499999999998</v>
       </c>
       <c r="AU11" s="100"/>
-      <c r="AV11" s="280"/>
+      <c r="AV11" s="233"/>
       <c r="AW11" s="85"/>
       <c r="AX11" s="85"/>
       <c r="AY11" s="85"/>
@@ -9823,105 +9640,105 @@
       <c r="BD11" s="100"/>
     </row>
     <row r="12" spans="1:56" ht="15.75">
-      <c r="A12" s="268">
+      <c r="A12" s="221">
         <v>6</v>
       </c>
-      <c r="B12" s="254">
+      <c r="B12" s="207">
         <v>1908446139</v>
       </c>
-      <c r="C12" s="254" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="269">
-        <v>5241</v>
-      </c>
-      <c r="E12" s="270"/>
-      <c r="F12" s="269"/>
-      <c r="G12" s="270"/>
-      <c r="H12" s="270"/>
-      <c r="I12" s="270"/>
-      <c r="J12" s="270"/>
-      <c r="K12" s="270">
-        <v>20</v>
-      </c>
-      <c r="L12" s="270"/>
-      <c r="M12" s="270">
+      <c r="C12" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="222">
+        <v>5473</v>
+      </c>
+      <c r="E12" s="223"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="223"/>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223">
+        <v>100</v>
+      </c>
+      <c r="N12" s="223"/>
+      <c r="O12" s="223">
         <v>50</v>
       </c>
-      <c r="N12" s="270"/>
-      <c r="O12" s="270"/>
-      <c r="P12" s="270">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="254"/>
-      <c r="R12" s="254"/>
-      <c r="S12" s="254"/>
-      <c r="T12" s="254"/>
-      <c r="U12" s="254"/>
-      <c r="V12" s="254"/>
-      <c r="W12" s="254"/>
-      <c r="X12" s="254"/>
-      <c r="Y12" s="254"/>
-      <c r="Z12" s="254"/>
-      <c r="AA12" s="254"/>
-      <c r="AB12" s="254"/>
-      <c r="AC12" s="258">
+      <c r="P12" s="223">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="207"/>
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207"/>
+      <c r="U12" s="207"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="207"/>
+      <c r="X12" s="207"/>
+      <c r="Y12" s="207"/>
+      <c r="Z12" s="207"/>
+      <c r="AA12" s="207"/>
+      <c r="AB12" s="207"/>
+      <c r="AC12" s="211">
         <f>D12*1+E12*999+F12*499+G12*75+H12*50+I12*30+K12*20+L12*19+M12*10+P12*9+N12*10+J12*29+S12*191+V12*4744+W12*110+X12*450+Y12*110+Z12*191+AA12*188+AB12*182+U12*30+T12*350+R12*4+Q12*5+O12*9</f>
-        <v>7041</v>
-      </c>
-      <c r="AD12" s="254">
+        <v>7373</v>
+      </c>
+      <c r="AD12" s="207">
         <f>D12*1</f>
-        <v>5241</v>
-      </c>
-      <c r="AE12" s="271">
+        <v>5473</v>
+      </c>
+      <c r="AE12" s="224">
         <f>D12*2.75%</f>
-        <v>144.1275</v>
-      </c>
-      <c r="AF12" s="271">
+        <v>150.50749999999999</v>
+      </c>
+      <c r="AF12" s="224">
         <f>AD12*0.95%</f>
-        <v>49.789499999999997</v>
-      </c>
-      <c r="AG12" s="259">
+        <v>51.993499999999997</v>
+      </c>
+      <c r="AG12" s="212">
         <f t="shared" si="7"/>
-        <v>49.5</v>
-      </c>
-      <c r="AH12" s="271">
+        <v>52.25</v>
+      </c>
+      <c r="AH12" s="224">
         <f t="shared" si="4"/>
-        <v>17.099999999999998</v>
-      </c>
-      <c r="AI12" s="271">
+        <v>18.05</v>
+      </c>
+      <c r="AI12" s="224">
         <f>V12*0+W12*0+Y12*0+Z12*0+U12*0+AA12*0+AB12*9+S12*0</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="272"/>
-      <c r="AK12" s="272"/>
-      <c r="AL12" s="272"/>
-      <c r="AM12" s="272"/>
-      <c r="AN12" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="261">
+      <c r="AJ12" s="225"/>
+      <c r="AK12" s="225"/>
+      <c r="AL12" s="225"/>
+      <c r="AM12" s="225"/>
+      <c r="AN12" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="214">
         <f t="shared" si="9"/>
-        <v>148.80250000000001</v>
-      </c>
-      <c r="AP12" s="273"/>
-      <c r="AQ12" s="263">
-        <v>47</v>
-      </c>
-      <c r="AR12" s="264">
+        <v>156.00749999999999</v>
+      </c>
+      <c r="AP12" s="226"/>
+      <c r="AQ12" s="216">
+        <v>60</v>
+      </c>
+      <c r="AR12" s="217">
         <f t="shared" si="10"/>
-        <v>6800.3725000000004</v>
-      </c>
-      <c r="AS12" s="274">
+        <v>7110.2425000000003</v>
+      </c>
+      <c r="AS12" s="227">
         <f>AF12+AH12+AI12</f>
-        <v>66.889499999999998</v>
-      </c>
-      <c r="AT12" s="275">
+        <v>70.043499999999995</v>
+      </c>
+      <c r="AT12" s="228">
         <f>AS12-AQ12-AN12</f>
-        <v>19.889499999999998</v>
+        <v>10.043499999999995</v>
       </c>
       <c r="AU12" s="100"/>
-      <c r="AV12" s="277"/>
+      <c r="AV12" s="230"/>
       <c r="AW12" s="85"/>
       <c r="AX12" s="85"/>
       <c r="AY12" s="85"/>
@@ -9932,107 +9749,103 @@
       <c r="BD12" s="100"/>
     </row>
     <row r="13" spans="1:56" ht="15.75">
-      <c r="A13" s="268">
+      <c r="A13" s="221">
         <v>7</v>
       </c>
-      <c r="B13" s="254">
+      <c r="B13" s="207">
         <v>1908446140</v>
       </c>
-      <c r="C13" s="254" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="269">
-        <v>5449</v>
-      </c>
-      <c r="E13" s="270"/>
-      <c r="F13" s="269"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="270">
-        <v>10</v>
-      </c>
-      <c r="L13" s="270"/>
-      <c r="M13" s="270">
-        <v>60</v>
-      </c>
-      <c r="N13" s="270"/>
-      <c r="O13" s="270">
-        <v>30</v>
-      </c>
-      <c r="P13" s="270">
+      <c r="C13" s="207" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="222">
+        <v>6916</v>
+      </c>
+      <c r="E13" s="223"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223">
         <v>100</v>
       </c>
-      <c r="Q13" s="254"/>
-      <c r="R13" s="254"/>
-      <c r="S13" s="254"/>
-      <c r="T13" s="254"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="254"/>
-      <c r="W13" s="254"/>
-      <c r="X13" s="254"/>
-      <c r="Y13" s="254"/>
-      <c r="Z13" s="254"/>
-      <c r="AA13" s="254"/>
-      <c r="AB13" s="254"/>
-      <c r="AC13" s="258">
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
+      <c r="O13" s="223"/>
+      <c r="P13" s="223">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="207"/>
+      <c r="R13" s="207"/>
+      <c r="S13" s="207"/>
+      <c r="T13" s="207"/>
+      <c r="U13" s="207"/>
+      <c r="V13" s="207"/>
+      <c r="W13" s="207"/>
+      <c r="X13" s="207"/>
+      <c r="Y13" s="207"/>
+      <c r="Z13" s="207"/>
+      <c r="AA13" s="207"/>
+      <c r="AB13" s="207"/>
+      <c r="AC13" s="211">
         <f t="shared" si="0"/>
-        <v>7419</v>
-      </c>
-      <c r="AD13" s="254">
+        <v>9816</v>
+      </c>
+      <c r="AD13" s="207">
         <f t="shared" si="1"/>
-        <v>5449</v>
-      </c>
-      <c r="AE13" s="271">
+        <v>6916</v>
+      </c>
+      <c r="AE13" s="224">
         <f t="shared" si="2"/>
-        <v>149.8475</v>
-      </c>
-      <c r="AF13" s="271">
+        <v>190.19</v>
+      </c>
+      <c r="AF13" s="224">
         <f t="shared" si="3"/>
-        <v>51.765499999999996</v>
-      </c>
-      <c r="AG13" s="259">
+        <v>65.701999999999998</v>
+      </c>
+      <c r="AG13" s="212">
         <f t="shared" si="7"/>
-        <v>54.174999999999997</v>
-      </c>
-      <c r="AH13" s="271">
+        <v>79.75</v>
+      </c>
+      <c r="AH13" s="224">
         <f t="shared" si="4"/>
-        <v>18.715</v>
-      </c>
-      <c r="AI13" s="271">
+        <v>27.55</v>
+      </c>
+      <c r="AI13" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="272"/>
-      <c r="AK13" s="272"/>
-      <c r="AL13" s="272"/>
-      <c r="AM13" s="272"/>
-      <c r="AN13" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="261">
+      <c r="AJ13" s="225"/>
+      <c r="AK13" s="225"/>
+      <c r="AL13" s="225"/>
+      <c r="AM13" s="225"/>
+      <c r="AN13" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="214">
         <f t="shared" si="9"/>
-        <v>155.3475</v>
-      </c>
-      <c r="AP13" s="273"/>
-      <c r="AQ13" s="263">
-        <v>53</v>
-      </c>
-      <c r="AR13" s="264">
+        <v>195.69</v>
+      </c>
+      <c r="AP13" s="226"/>
+      <c r="AQ13" s="216">
+        <v>65</v>
+      </c>
+      <c r="AR13" s="217">
         <f t="shared" si="10"/>
-        <v>7161.9775</v>
-      </c>
-      <c r="AS13" s="274">
+        <v>9481.06</v>
+      </c>
+      <c r="AS13" s="227">
         <f t="shared" si="5"/>
-        <v>70.480499999999992</v>
-      </c>
-      <c r="AT13" s="275">
+        <v>93.251999999999995</v>
+      </c>
+      <c r="AT13" s="228">
         <f>AS13-AQ13-AN13</f>
-        <v>17.480499999999992</v>
+        <v>28.251999999999995</v>
       </c>
       <c r="AU13" s="100"/>
-      <c r="AV13" s="277"/>
+      <c r="AV13" s="230"/>
       <c r="AW13" s="85"/>
       <c r="AX13" s="85"/>
       <c r="AY13" s="85"/>
@@ -10043,105 +9856,105 @@
       <c r="BD13" s="100"/>
     </row>
     <row r="14" spans="1:56" ht="15.75">
-      <c r="A14" s="268">
+      <c r="A14" s="221">
         <v>8</v>
       </c>
-      <c r="B14" s="254">
+      <c r="B14" s="207">
         <v>1908446141</v>
       </c>
-      <c r="C14" s="254" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="269">
-        <v>15559</v>
-      </c>
-      <c r="E14" s="270"/>
-      <c r="F14" s="269"/>
-      <c r="G14" s="270"/>
-      <c r="H14" s="270"/>
-      <c r="I14" s="270"/>
-      <c r="J14" s="270"/>
-      <c r="K14" s="270"/>
-      <c r="L14" s="270"/>
-      <c r="M14" s="270">
+      <c r="C14" s="207" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="222">
+        <v>15954</v>
+      </c>
+      <c r="E14" s="223"/>
+      <c r="F14" s="222"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="223">
+        <v>30</v>
+      </c>
+      <c r="L14" s="223"/>
+      <c r="M14" s="223"/>
+      <c r="N14" s="223"/>
+      <c r="O14" s="223">
         <v>50</v>
       </c>
-      <c r="N14" s="270"/>
-      <c r="O14" s="270"/>
-      <c r="P14" s="270">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="254"/>
-      <c r="R14" s="254"/>
-      <c r="S14" s="254">
-        <v>20</v>
-      </c>
-      <c r="T14" s="254"/>
-      <c r="U14" s="254"/>
-      <c r="V14" s="254"/>
-      <c r="W14" s="254"/>
-      <c r="X14" s="254"/>
-      <c r="Y14" s="254"/>
-      <c r="Z14" s="254"/>
-      <c r="AA14" s="254"/>
-      <c r="AB14" s="254"/>
-      <c r="AC14" s="258">
+      <c r="P14" s="223">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="207"/>
+      <c r="R14" s="207"/>
+      <c r="S14" s="207"/>
+      <c r="T14" s="207"/>
+      <c r="U14" s="207"/>
+      <c r="V14" s="207"/>
+      <c r="W14" s="207"/>
+      <c r="X14" s="207"/>
+      <c r="Y14" s="207"/>
+      <c r="Z14" s="207"/>
+      <c r="AA14" s="207"/>
+      <c r="AB14" s="207"/>
+      <c r="AC14" s="211">
         <f t="shared" si="0"/>
-        <v>21229</v>
-      </c>
-      <c r="AD14" s="254">
+        <v>18174</v>
+      </c>
+      <c r="AD14" s="207">
         <f t="shared" si="1"/>
-        <v>15559</v>
-      </c>
-      <c r="AE14" s="271">
+        <v>15954</v>
+      </c>
+      <c r="AE14" s="224">
         <f t="shared" si="2"/>
-        <v>427.8725</v>
-      </c>
-      <c r="AF14" s="271">
+        <v>438.73500000000001</v>
+      </c>
+      <c r="AF14" s="224">
         <f t="shared" si="3"/>
-        <v>147.81049999999999</v>
-      </c>
-      <c r="AG14" s="259">
+        <v>151.56299999999999</v>
+      </c>
+      <c r="AG14" s="212">
         <f t="shared" si="7"/>
-        <v>50.875</v>
-      </c>
-      <c r="AH14" s="271">
+        <v>61.05</v>
+      </c>
+      <c r="AH14" s="224">
         <f t="shared" si="4"/>
-        <v>17.574999999999999</v>
-      </c>
-      <c r="AI14" s="271">
+        <v>21.09</v>
+      </c>
+      <c r="AI14" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="272"/>
-      <c r="AK14" s="272"/>
-      <c r="AL14" s="272"/>
-      <c r="AM14" s="272"/>
-      <c r="AN14" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="261">
+      <c r="AJ14" s="225"/>
+      <c r="AK14" s="225"/>
+      <c r="AL14" s="225"/>
+      <c r="AM14" s="225"/>
+      <c r="AN14" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="214">
         <f t="shared" si="9"/>
-        <v>433.3725</v>
-      </c>
-      <c r="AP14" s="273"/>
-      <c r="AQ14" s="263">
-        <v>121</v>
-      </c>
-      <c r="AR14" s="264">
+        <v>444.51</v>
+      </c>
+      <c r="AP14" s="226"/>
+      <c r="AQ14" s="216">
+        <v>145</v>
+      </c>
+      <c r="AR14" s="217">
         <f>AC14-AE14-AG14-AJ14-AK14-AL14-AM14-AN14-AP14-AQ14</f>
-        <v>20629.252499999999</v>
-      </c>
-      <c r="AS14" s="274">
+        <v>17529.215</v>
+      </c>
+      <c r="AS14" s="227">
         <f t="shared" si="5"/>
-        <v>165.38549999999998</v>
-      </c>
-      <c r="AT14" s="281">
+        <v>172.65299999999999</v>
+      </c>
+      <c r="AT14" s="234">
         <f t="shared" si="6"/>
-        <v>44.385499999999979</v>
+        <v>27.652999999999992</v>
       </c>
       <c r="AU14" s="100"/>
-      <c r="AV14" s="277"/>
+      <c r="AV14" s="230"/>
       <c r="AW14" s="85"/>
       <c r="AX14" s="85"/>
       <c r="AY14" s="85"/>
@@ -10152,111 +9965,113 @@
       <c r="BD14" s="100"/>
     </row>
     <row r="15" spans="1:56" ht="17.25">
-      <c r="A15" s="268">
+      <c r="A15" s="221">
         <v>9</v>
       </c>
-      <c r="B15" s="254">
+      <c r="B15" s="207">
         <v>1908446142</v>
       </c>
-      <c r="C15" s="282" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="269">
-        <v>31615</v>
-      </c>
-      <c r="E15" s="270"/>
-      <c r="F15" s="269"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="270"/>
-      <c r="I15" s="270"/>
-      <c r="J15" s="270"/>
-      <c r="K15" s="270">
-        <v>10</v>
-      </c>
-      <c r="L15" s="270"/>
-      <c r="M15" s="270">
+      <c r="C15" s="235" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="222">
+        <v>14750</v>
+      </c>
+      <c r="E15" s="223"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223">
+        <v>90</v>
+      </c>
+      <c r="L15" s="223"/>
+      <c r="M15" s="223">
         <v>50</v>
       </c>
-      <c r="N15" s="270"/>
-      <c r="O15" s="270">
-        <v>30</v>
-      </c>
-      <c r="P15" s="270">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="254"/>
-      <c r="R15" s="254"/>
-      <c r="S15" s="254">
+      <c r="N15" s="223"/>
+      <c r="O15" s="223">
+        <v>60</v>
+      </c>
+      <c r="P15" s="223">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="207"/>
+      <c r="S15" s="207">
         <v>5</v>
       </c>
-      <c r="T15" s="254"/>
-      <c r="U15" s="254"/>
-      <c r="V15" s="254"/>
-      <c r="W15" s="254"/>
-      <c r="X15" s="254"/>
-      <c r="Y15" s="254"/>
-      <c r="Z15" s="254"/>
-      <c r="AA15" s="254"/>
-      <c r="AB15" s="254"/>
-      <c r="AC15" s="258">
+      <c r="T15" s="207"/>
+      <c r="U15" s="207"/>
+      <c r="V15" s="207"/>
+      <c r="W15" s="207"/>
+      <c r="X15" s="207"/>
+      <c r="Y15" s="207"/>
+      <c r="Z15" s="207"/>
+      <c r="AA15" s="207">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="207"/>
+      <c r="AC15" s="211">
         <f t="shared" si="0"/>
-        <v>33900</v>
-      </c>
-      <c r="AD15" s="254">
+        <v>19665</v>
+      </c>
+      <c r="AD15" s="207">
         <f t="shared" si="1"/>
-        <v>31615</v>
-      </c>
-      <c r="AE15" s="271">
+        <v>14750</v>
+      </c>
+      <c r="AE15" s="224">
         <f t="shared" si="2"/>
-        <v>869.41250000000002</v>
-      </c>
-      <c r="AF15" s="271">
+        <v>405.625</v>
+      </c>
+      <c r="AF15" s="224">
         <f t="shared" si="3"/>
-        <v>300.34249999999997</v>
-      </c>
-      <c r="AG15" s="259">
+        <v>140.125</v>
+      </c>
+      <c r="AG15" s="212">
         <f t="shared" si="7"/>
-        <v>36.575000000000003</v>
-      </c>
-      <c r="AH15" s="271">
+        <v>83.05</v>
+      </c>
+      <c r="AH15" s="224">
         <f t="shared" si="4"/>
-        <v>12.635</v>
-      </c>
-      <c r="AI15" s="271">
+        <v>28.689999999999998</v>
+      </c>
+      <c r="AI15" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="272"/>
-      <c r="AK15" s="272"/>
-      <c r="AL15" s="272"/>
-      <c r="AM15" s="272"/>
-      <c r="AN15" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="261">
+      <c r="AJ15" s="225"/>
+      <c r="AK15" s="225"/>
+      <c r="AL15" s="225"/>
+      <c r="AM15" s="225"/>
+      <c r="AN15" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="214">
         <f t="shared" si="9"/>
-        <v>872.98749999999995</v>
-      </c>
-      <c r="AP15" s="273"/>
-      <c r="AQ15" s="263">
-        <v>260</v>
-      </c>
-      <c r="AR15" s="264">
+        <v>411.67500000000001</v>
+      </c>
+      <c r="AP15" s="226"/>
+      <c r="AQ15" s="216">
+        <v>145</v>
+      </c>
+      <c r="AR15" s="217">
         <f t="shared" si="10"/>
-        <v>32734.012500000004</v>
-      </c>
-      <c r="AS15" s="274">
+        <v>19031.325000000001</v>
+      </c>
+      <c r="AS15" s="227">
         <f>AF15+AH15+AI15</f>
-        <v>312.97749999999996</v>
-      </c>
-      <c r="AT15" s="275">
+        <v>168.815</v>
+      </c>
+      <c r="AT15" s="228">
         <f>AS15-AQ15-AN15</f>
-        <v>52.977499999999964</v>
+        <v>23.814999999999998</v>
       </c>
       <c r="AU15" s="100"/>
-      <c r="AV15" s="277"/>
-      <c r="AW15" s="283"/>
-      <c r="AX15" s="283"/>
+      <c r="AV15" s="230"/>
+      <c r="AW15" s="236"/>
+      <c r="AX15" s="236"/>
       <c r="AY15" s="85"/>
       <c r="AZ15" s="85"/>
       <c r="BA15" s="100"/>
@@ -10265,105 +10080,103 @@
       <c r="BD15" s="100"/>
     </row>
     <row r="16" spans="1:56" ht="18" customHeight="1">
-      <c r="A16" s="268">
+      <c r="A16" s="221">
         <v>10</v>
       </c>
-      <c r="B16" s="254">
+      <c r="B16" s="207">
         <v>1908446143</v>
       </c>
-      <c r="C16" s="254" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="269">
-        <v>18914</v>
-      </c>
-      <c r="E16" s="270"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="270"/>
-      <c r="I16" s="270"/>
-      <c r="J16" s="270"/>
-      <c r="K16" s="270">
-        <v>70</v>
-      </c>
-      <c r="L16" s="270"/>
-      <c r="M16" s="270"/>
-      <c r="N16" s="270"/>
-      <c r="O16" s="270"/>
-      <c r="P16" s="270">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="254"/>
-      <c r="R16" s="254"/>
-      <c r="S16" s="254">
-        <v>20</v>
-      </c>
-      <c r="T16" s="254"/>
-      <c r="U16" s="254"/>
-      <c r="V16" s="254"/>
-      <c r="W16" s="254"/>
-      <c r="X16" s="254"/>
-      <c r="Y16" s="254"/>
-      <c r="Z16" s="254"/>
-      <c r="AA16" s="254"/>
-      <c r="AB16" s="254"/>
-      <c r="AC16" s="258">
+      <c r="C16" s="207" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="222">
+        <v>15323</v>
+      </c>
+      <c r="E16" s="223"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="207"/>
+      <c r="S16" s="207">
+        <v>11</v>
+      </c>
+      <c r="T16" s="207"/>
+      <c r="U16" s="207"/>
+      <c r="V16" s="207"/>
+      <c r="W16" s="207"/>
+      <c r="X16" s="207"/>
+      <c r="Y16" s="207"/>
+      <c r="Z16" s="207"/>
+      <c r="AA16" s="207">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="207"/>
+      <c r="AC16" s="211">
         <f t="shared" si="0"/>
-        <v>25034</v>
-      </c>
-      <c r="AD16" s="254">
+        <v>19304</v>
+      </c>
+      <c r="AD16" s="207">
         <f t="shared" si="1"/>
-        <v>18914</v>
-      </c>
-      <c r="AE16" s="271">
+        <v>15323</v>
+      </c>
+      <c r="AE16" s="224">
         <f t="shared" si="2"/>
-        <v>520.13499999999999</v>
-      </c>
-      <c r="AF16" s="271">
+        <v>421.38249999999999</v>
+      </c>
+      <c r="AF16" s="224">
         <f t="shared" si="3"/>
-        <v>179.68299999999999</v>
-      </c>
-      <c r="AG16" s="259">
+        <v>145.5685</v>
+      </c>
+      <c r="AG16" s="212">
         <f t="shared" si="7"/>
-        <v>63.25</v>
-      </c>
-      <c r="AH16" s="271">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="224">
         <f t="shared" si="4"/>
-        <v>21.849999999999998</v>
-      </c>
-      <c r="AI16" s="271">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="272"/>
-      <c r="AK16" s="272"/>
-      <c r="AL16" s="272"/>
-      <c r="AM16" s="272"/>
-      <c r="AN16" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="261">
+      <c r="AJ16" s="225"/>
+      <c r="AK16" s="225"/>
+      <c r="AL16" s="225"/>
+      <c r="AM16" s="225"/>
+      <c r="AN16" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="214">
         <f t="shared" si="9"/>
-        <v>524.81000000000006</v>
-      </c>
-      <c r="AP16" s="273"/>
-      <c r="AQ16" s="263">
-        <v>402</v>
-      </c>
-      <c r="AR16" s="264">
+        <v>421.38249999999999</v>
+      </c>
+      <c r="AP16" s="226"/>
+      <c r="AQ16" s="216">
+        <v>113</v>
+      </c>
+      <c r="AR16" s="217">
         <f>AC16-AE16-AG16-AJ16-AK16-AL16-AM16-AN16-AP16-AQ16</f>
-        <v>24048.615000000002</v>
-      </c>
-      <c r="AS16" s="274">
+        <v>18769.6175</v>
+      </c>
+      <c r="AS16" s="227">
         <f t="shared" si="5"/>
-        <v>201.53299999999999</v>
-      </c>
-      <c r="AT16" s="275">
+        <v>145.5685</v>
+      </c>
+      <c r="AT16" s="228">
         <f t="shared" si="6"/>
-        <v>-200.46700000000001</v>
+        <v>32.5685</v>
       </c>
       <c r="AU16" s="100"/>
-      <c r="AV16" s="277"/>
+      <c r="AV16" s="230"/>
       <c r="AW16" s="85"/>
       <c r="AX16" s="85"/>
       <c r="AY16" s="85"/>
@@ -10374,109 +10187,107 @@
       <c r="BD16" s="100"/>
     </row>
     <row r="17" spans="1:56" ht="15.75">
-      <c r="A17" s="268">
+      <c r="A17" s="221">
         <v>11</v>
       </c>
-      <c r="B17" s="254">
+      <c r="B17" s="207">
         <v>1908446144</v>
       </c>
-      <c r="C17" s="282" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="269">
-        <v>11893</v>
-      </c>
-      <c r="E17" s="270"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="270"/>
-      <c r="I17" s="270"/>
-      <c r="J17" s="270"/>
-      <c r="K17" s="270"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="270">
+      <c r="C17" s="235" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="222">
+        <v>16067</v>
+      </c>
+      <c r="E17" s="223"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223">
+        <v>10</v>
+      </c>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223">
         <v>100</v>
       </c>
-      <c r="N17" s="270"/>
-      <c r="O17" s="270">
+      <c r="N17" s="223"/>
+      <c r="O17" s="223">
         <v>30</v>
       </c>
-      <c r="P17" s="270">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="254"/>
-      <c r="R17" s="254"/>
-      <c r="S17" s="254">
-        <v>11</v>
-      </c>
-      <c r="T17" s="254"/>
-      <c r="U17" s="254"/>
-      <c r="V17" s="254"/>
-      <c r="W17" s="254"/>
-      <c r="X17" s="254"/>
-      <c r="Y17" s="254"/>
-      <c r="Z17" s="254"/>
-      <c r="AA17" s="254"/>
-      <c r="AB17" s="254"/>
-      <c r="AC17" s="258">
+      <c r="P17" s="223"/>
+      <c r="Q17" s="207"/>
+      <c r="R17" s="207"/>
+      <c r="S17" s="207"/>
+      <c r="T17" s="207"/>
+      <c r="U17" s="207"/>
+      <c r="V17" s="207"/>
+      <c r="W17" s="207"/>
+      <c r="X17" s="207"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
+      <c r="AC17" s="211">
         <f t="shared" si="0"/>
-        <v>16164</v>
-      </c>
-      <c r="AD17" s="254">
+        <v>17537</v>
+      </c>
+      <c r="AD17" s="207">
         <f>D17*1</f>
-        <v>11893</v>
-      </c>
-      <c r="AE17" s="271">
+        <v>16067</v>
+      </c>
+      <c r="AE17" s="224">
         <f>D17*2.75%</f>
-        <v>327.0575</v>
-      </c>
-      <c r="AF17" s="271">
+        <v>441.84250000000003</v>
+      </c>
+      <c r="AF17" s="224">
         <f>AD17*0.95%</f>
-        <v>112.98349999999999</v>
-      </c>
-      <c r="AG17" s="259">
+        <v>152.63649999999998</v>
+      </c>
+      <c r="AG17" s="212">
         <f t="shared" si="7"/>
-        <v>59.674999999999997</v>
-      </c>
-      <c r="AH17" s="271">
+        <v>40.424999999999997</v>
+      </c>
+      <c r="AH17" s="224">
         <f t="shared" si="4"/>
-        <v>20.614999999999998</v>
-      </c>
-      <c r="AI17" s="271">
+        <v>13.965</v>
+      </c>
+      <c r="AI17" s="224">
         <f>V17*0+W17*0+Y17*0+Z17*0+U17*0+AA17*0+AB17*9+S17*0</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="272"/>
-      <c r="AK17" s="272"/>
-      <c r="AL17" s="272"/>
-      <c r="AM17" s="272"/>
-      <c r="AN17" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="261">
+      <c r="AJ17" s="225"/>
+      <c r="AK17" s="225"/>
+      <c r="AL17" s="225"/>
+      <c r="AM17" s="225"/>
+      <c r="AN17" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="214">
         <f t="shared" si="9"/>
-        <v>333.38249999999999</v>
-      </c>
-      <c r="AP17" s="273"/>
-      <c r="AQ17" s="263">
-        <v>107</v>
-      </c>
-      <c r="AR17" s="264">
+        <v>445.6925</v>
+      </c>
+      <c r="AP17" s="226"/>
+      <c r="AQ17" s="216">
+        <v>150</v>
+      </c>
+      <c r="AR17" s="217">
         <f>AC17-AE17-AG17-AJ17-AK17-AL17-AM17-AN17-AP17-AQ17</f>
-        <v>15670.2675</v>
-      </c>
-      <c r="AS17" s="274">
+        <v>16904.732500000002</v>
+      </c>
+      <c r="AS17" s="227">
         <f>AF17+AH17+AI17</f>
-        <v>133.5985</v>
-      </c>
-      <c r="AT17" s="275">
+        <v>166.60149999999999</v>
+      </c>
+      <c r="AT17" s="228">
         <f>AS17-AQ17-AN17</f>
-        <v>26.598500000000001</v>
+        <v>16.601499999999987</v>
       </c>
       <c r="AU17" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV17" s="277"/>
+        <v>114</v>
+      </c>
+      <c r="AV17" s="230"/>
       <c r="AW17" s="85"/>
       <c r="AX17" s="85"/>
       <c r="AY17" s="85"/>
@@ -10487,105 +10298,99 @@
       <c r="BD17" s="100"/>
     </row>
     <row r="18" spans="1:56" ht="15" customHeight="1">
-      <c r="A18" s="268">
+      <c r="A18" s="221">
         <v>12</v>
       </c>
-      <c r="B18" s="254">
+      <c r="B18" s="207">
         <v>1908446145</v>
       </c>
-      <c r="C18" s="278" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="269">
-        <v>14392</v>
-      </c>
-      <c r="E18" s="270"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="270"/>
-      <c r="I18" s="270"/>
-      <c r="J18" s="270"/>
-      <c r="K18" s="270"/>
-      <c r="L18" s="270"/>
-      <c r="M18" s="270">
-        <v>30</v>
-      </c>
-      <c r="N18" s="270"/>
-      <c r="O18" s="270">
-        <v>10</v>
-      </c>
-      <c r="P18" s="270">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="254"/>
-      <c r="R18" s="254"/>
-      <c r="S18" s="254"/>
-      <c r="T18" s="254"/>
-      <c r="U18" s="254"/>
-      <c r="V18" s="254"/>
-      <c r="W18" s="254"/>
-      <c r="X18" s="254"/>
-      <c r="Y18" s="254"/>
-      <c r="Z18" s="254"/>
-      <c r="AA18" s="254"/>
-      <c r="AB18" s="254"/>
-      <c r="AC18" s="258">
+      <c r="C18" s="231" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="222">
+        <v>7711</v>
+      </c>
+      <c r="E18" s="223"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="223"/>
+      <c r="Q18" s="207"/>
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207"/>
+      <c r="U18" s="207"/>
+      <c r="V18" s="207"/>
+      <c r="W18" s="207"/>
+      <c r="X18" s="207"/>
+      <c r="Y18" s="207"/>
+      <c r="Z18" s="207"/>
+      <c r="AA18" s="207"/>
+      <c r="AB18" s="207"/>
+      <c r="AC18" s="211">
         <f t="shared" si="0"/>
-        <v>15502</v>
-      </c>
-      <c r="AD18" s="254">
+        <v>7711</v>
+      </c>
+      <c r="AD18" s="207">
         <f>D18*1</f>
-        <v>14392</v>
-      </c>
-      <c r="AE18" s="271">
+        <v>7711</v>
+      </c>
+      <c r="AE18" s="224">
         <f>D18*2.75%</f>
-        <v>395.78000000000003</v>
-      </c>
-      <c r="AF18" s="271">
+        <v>212.05250000000001</v>
+      </c>
+      <c r="AF18" s="224">
         <f>AD18*0.95%</f>
-        <v>136.72399999999999</v>
-      </c>
-      <c r="AG18" s="259">
+        <v>73.254499999999993</v>
+      </c>
+      <c r="AG18" s="212">
         <f t="shared" si="7"/>
-        <v>30.524999999999999</v>
-      </c>
-      <c r="AH18" s="271">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="224">
         <f t="shared" si="4"/>
-        <v>10.545</v>
-      </c>
-      <c r="AI18" s="271">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="224">
         <f>V18*0+W18*0+Y18*0+Z18*0+U18*0+AA18*0+AB18*9+S18*0</f>
         <v>0</v>
       </c>
-      <c r="AJ18" s="272"/>
-      <c r="AK18" s="272"/>
-      <c r="AL18" s="272"/>
-      <c r="AM18" s="272"/>
-      <c r="AN18" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="261">
+      <c r="AJ18" s="225"/>
+      <c r="AK18" s="225"/>
+      <c r="AL18" s="225"/>
+      <c r="AM18" s="225"/>
+      <c r="AN18" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="214">
         <f t="shared" si="9"/>
-        <v>399.08</v>
-      </c>
-      <c r="AP18" s="273"/>
-      <c r="AQ18" s="263">
-        <v>100</v>
-      </c>
-      <c r="AR18" s="264">
+        <v>212.05250000000001</v>
+      </c>
+      <c r="AP18" s="226"/>
+      <c r="AQ18" s="216">
+        <v>150</v>
+      </c>
+      <c r="AR18" s="217">
         <f t="shared" si="10"/>
-        <v>14975.695</v>
-      </c>
-      <c r="AS18" s="274">
+        <v>7348.9475000000002</v>
+      </c>
+      <c r="AS18" s="227">
         <f>AF18+AH18+AI18</f>
-        <v>147.26899999999998</v>
-      </c>
-      <c r="AT18" s="275">
+        <v>73.254499999999993</v>
+      </c>
+      <c r="AT18" s="228">
         <f>AS18-AQ18-AN18</f>
-        <v>47.268999999999977</v>
+        <v>-76.745500000000007</v>
       </c>
       <c r="AU18" s="100"/>
-      <c r="AV18" s="277"/>
+      <c r="AV18" s="230"/>
       <c r="AW18" s="85"/>
       <c r="AX18" s="85"/>
       <c r="AY18" s="85"/>
@@ -10596,104 +10401,102 @@
       <c r="BD18" s="100"/>
     </row>
     <row r="19" spans="1:56" ht="15.75">
-      <c r="A19" s="268">
+      <c r="A19" s="221">
         <v>13</v>
       </c>
-      <c r="B19" s="254">
+      <c r="B19" s="207">
         <v>1908446146</v>
       </c>
-      <c r="C19" s="254" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="269">
-        <v>10907</v>
-      </c>
-      <c r="E19" s="270"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="270"/>
-      <c r="I19" s="270"/>
-      <c r="J19" s="270"/>
-      <c r="K19" s="270"/>
-      <c r="L19" s="270"/>
-      <c r="M19" s="270">
-        <v>10</v>
-      </c>
-      <c r="N19" s="270"/>
-      <c r="O19" s="270"/>
-      <c r="P19" s="270">
+      <c r="C19" s="207" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="222">
+        <v>14156</v>
+      </c>
+      <c r="E19" s="223"/>
+      <c r="F19" s="222"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="223"/>
+      <c r="M19" s="223">
+        <v>50</v>
+      </c>
+      <c r="N19" s="223"/>
+      <c r="O19" s="223"/>
+      <c r="P19" s="223">
         <v>250</v>
       </c>
-      <c r="Q19" s="254"/>
-      <c r="R19" s="254"/>
-      <c r="S19" s="254">
-        <v>75</v>
-      </c>
-      <c r="T19" s="254"/>
-      <c r="U19" s="254"/>
-      <c r="V19" s="254"/>
-      <c r="W19" s="254"/>
-      <c r="X19" s="254"/>
-      <c r="Y19" s="254"/>
-      <c r="Z19" s="254"/>
-      <c r="AA19" s="254">
-        <v>15</v>
-      </c>
-      <c r="AB19" s="254"/>
-      <c r="AC19" s="258">
+      <c r="Q19" s="207"/>
+      <c r="R19" s="207"/>
+      <c r="S19" s="207">
+        <v>25</v>
+      </c>
+      <c r="T19" s="207"/>
+      <c r="U19" s="207"/>
+      <c r="V19" s="207"/>
+      <c r="W19" s="207"/>
+      <c r="X19" s="207"/>
+      <c r="Y19" s="207"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="207"/>
+      <c r="AB19" s="207"/>
+      <c r="AC19" s="211">
         <f t="shared" si="0"/>
-        <v>30402</v>
-      </c>
-      <c r="AD19" s="254">
+        <v>21681</v>
+      </c>
+      <c r="AD19" s="207">
         <f t="shared" si="1"/>
-        <v>10907</v>
-      </c>
-      <c r="AE19" s="271">
+        <v>14156</v>
+      </c>
+      <c r="AE19" s="224">
         <f t="shared" si="2"/>
-        <v>299.9425</v>
-      </c>
-      <c r="AF19" s="271">
+        <v>389.29</v>
+      </c>
+      <c r="AF19" s="224">
         <f t="shared" si="3"/>
-        <v>103.6165</v>
-      </c>
-      <c r="AG19" s="259">
+        <v>134.482</v>
+      </c>
+      <c r="AG19" s="212">
         <f t="shared" si="7"/>
-        <v>64.625</v>
-      </c>
-      <c r="AH19" s="271">
+        <v>75.625</v>
+      </c>
+      <c r="AH19" s="224">
         <f t="shared" si="4"/>
-        <v>22.324999999999999</v>
-      </c>
-      <c r="AI19" s="271">
+        <v>26.125</v>
+      </c>
+      <c r="AI19" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ19" s="272"/>
-      <c r="AK19" s="272"/>
-      <c r="AL19" s="272"/>
-      <c r="AM19" s="272"/>
-      <c r="AN19" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="261">
+      <c r="AJ19" s="225"/>
+      <c r="AK19" s="225"/>
+      <c r="AL19" s="225"/>
+      <c r="AM19" s="225"/>
+      <c r="AN19" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="214">
         <f t="shared" si="9"/>
-        <v>307.09250000000003</v>
-      </c>
-      <c r="AP19" s="273"/>
-      <c r="AQ19" s="284">
+        <v>397.54</v>
+      </c>
+      <c r="AP19" s="226"/>
+      <c r="AQ19" s="237">
         <v>175</v>
       </c>
-      <c r="AR19" s="285">
+      <c r="AR19" s="238">
         <f t="shared" si="10"/>
-        <v>29862.432499999999</v>
-      </c>
-      <c r="AS19" s="274">
+        <v>21041.084999999999</v>
+      </c>
+      <c r="AS19" s="227">
         <f t="shared" si="5"/>
-        <v>125.9415</v>
-      </c>
-      <c r="AT19" s="274">
+        <v>160.607</v>
+      </c>
+      <c r="AT19" s="227">
         <f t="shared" si="6"/>
-        <v>-49.058499999999995</v>
+        <v>-14.393000000000001</v>
       </c>
       <c r="AU19" s="100"/>
       <c r="AV19" s="108"/>
@@ -10707,104 +10510,96 @@
       <c r="BD19" s="100"/>
     </row>
     <row r="20" spans="1:56" ht="15.75">
-      <c r="A20" s="268">
+      <c r="A20" s="221">
         <v>14</v>
       </c>
-      <c r="B20" s="254">
+      <c r="B20" s="207">
         <v>1908446147</v>
       </c>
-      <c r="C20" s="254" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="269">
-        <v>9663</v>
-      </c>
-      <c r="E20" s="270"/>
-      <c r="F20" s="269"/>
-      <c r="G20" s="270"/>
-      <c r="H20" s="270"/>
-      <c r="I20" s="270"/>
-      <c r="J20" s="270"/>
-      <c r="K20" s="270">
-        <v>100</v>
-      </c>
-      <c r="L20" s="270"/>
-      <c r="M20" s="270">
-        <v>100</v>
-      </c>
-      <c r="N20" s="270"/>
-      <c r="O20" s="270"/>
-      <c r="P20" s="270">
-        <v>450</v>
-      </c>
-      <c r="Q20" s="254"/>
-      <c r="R20" s="254"/>
-      <c r="S20" s="254"/>
-      <c r="T20" s="254"/>
-      <c r="U20" s="254"/>
-      <c r="V20" s="254"/>
-      <c r="W20" s="254"/>
-      <c r="X20" s="254"/>
-      <c r="Y20" s="254"/>
-      <c r="Z20" s="254"/>
-      <c r="AA20" s="254">
-        <v>25</v>
-      </c>
-      <c r="AB20" s="254"/>
-      <c r="AC20" s="258">
+      <c r="C20" s="207" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="222">
+        <v>9559</v>
+      </c>
+      <c r="E20" s="223"/>
+      <c r="F20" s="222"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="223"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="223"/>
+      <c r="O20" s="223"/>
+      <c r="P20" s="223"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207"/>
+      <c r="U20" s="207"/>
+      <c r="V20" s="207"/>
+      <c r="W20" s="207"/>
+      <c r="X20" s="207"/>
+      <c r="Y20" s="207"/>
+      <c r="Z20" s="207"/>
+      <c r="AA20" s="207"/>
+      <c r="AB20" s="207"/>
+      <c r="AC20" s="211">
         <f t="shared" si="0"/>
-        <v>21413</v>
-      </c>
-      <c r="AD20" s="254">
+        <v>9559</v>
+      </c>
+      <c r="AD20" s="207">
         <f t="shared" si="1"/>
-        <v>9663</v>
-      </c>
-      <c r="AE20" s="271">
+        <v>9559</v>
+      </c>
+      <c r="AE20" s="224">
         <f t="shared" si="2"/>
-        <v>265.73250000000002</v>
-      </c>
-      <c r="AF20" s="271">
+        <v>262.8725</v>
+      </c>
+      <c r="AF20" s="224">
         <f t="shared" si="3"/>
-        <v>91.798500000000004</v>
-      </c>
-      <c r="AG20" s="259">
+        <v>90.810500000000005</v>
+      </c>
+      <c r="AG20" s="212">
         <f t="shared" si="7"/>
-        <v>193.875</v>
-      </c>
-      <c r="AH20" s="271">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="224">
         <f t="shared" si="4"/>
-        <v>66.974999999999994</v>
-      </c>
-      <c r="AI20" s="271">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="272"/>
-      <c r="AK20" s="272"/>
-      <c r="AL20" s="272"/>
-      <c r="AM20" s="272"/>
-      <c r="AN20" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="261">
+      <c r="AJ20" s="225"/>
+      <c r="AK20" s="225"/>
+      <c r="AL20" s="225"/>
+      <c r="AM20" s="225"/>
+      <c r="AN20" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="214">
         <f t="shared" si="9"/>
-        <v>283.60750000000002</v>
-      </c>
-      <c r="AP20" s="273"/>
-      <c r="AQ20" s="284">
-        <v>149</v>
-      </c>
-      <c r="AR20" s="285">
+        <v>262.8725</v>
+      </c>
+      <c r="AP20" s="226"/>
+      <c r="AQ20" s="237">
+        <v>120</v>
+      </c>
+      <c r="AR20" s="238">
         <f>AC20-AE20-AG20-AJ20-AK20-AL20-AM20-AN20-AP20-AQ20</f>
-        <v>20804.392500000002</v>
-      </c>
-      <c r="AS20" s="274">
+        <v>9176.1275000000005</v>
+      </c>
+      <c r="AS20" s="227">
         <f>AF20+AH20+AI20</f>
-        <v>158.77350000000001</v>
-      </c>
-      <c r="AT20" s="274">
+        <v>90.810500000000005</v>
+      </c>
+      <c r="AT20" s="227">
         <f>AS20-AQ20-AN20</f>
-        <v>9.7735000000000127</v>
+        <v>-29.189499999999995</v>
       </c>
       <c r="AU20" s="100"/>
       <c r="AV20" s="108"/>
@@ -10818,100 +10613,98 @@
       <c r="BD20" s="100"/>
     </row>
     <row r="21" spans="1:56" ht="15.75">
-      <c r="A21" s="268">
+      <c r="A21" s="221">
         <v>15</v>
       </c>
-      <c r="B21" s="254">
+      <c r="B21" s="207">
         <v>1908446148</v>
       </c>
-      <c r="C21" s="254" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="269">
-        <v>6165</v>
-      </c>
-      <c r="E21" s="270"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="270"/>
-      <c r="H21" s="270"/>
-      <c r="I21" s="270"/>
-      <c r="J21" s="270"/>
-      <c r="K21" s="270"/>
-      <c r="L21" s="270"/>
-      <c r="M21" s="270"/>
-      <c r="N21" s="270"/>
-      <c r="O21" s="270"/>
-      <c r="P21" s="270">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="254"/>
-      <c r="R21" s="254"/>
-      <c r="S21" s="254">
-        <v>25</v>
-      </c>
-      <c r="T21" s="254"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="254"/>
-      <c r="W21" s="254"/>
-      <c r="X21" s="254"/>
-      <c r="Y21" s="254"/>
-      <c r="Z21" s="254"/>
-      <c r="AA21" s="254"/>
-      <c r="AB21" s="254"/>
-      <c r="AC21" s="258">
+      <c r="C21" s="207" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="222">
+        <v>6370</v>
+      </c>
+      <c r="E21" s="223"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
+      <c r="O21" s="223"/>
+      <c r="P21" s="223">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="207"/>
+      <c r="S21" s="207"/>
+      <c r="T21" s="207"/>
+      <c r="U21" s="207"/>
+      <c r="V21" s="207"/>
+      <c r="W21" s="207"/>
+      <c r="X21" s="207"/>
+      <c r="Y21" s="207"/>
+      <c r="Z21" s="207"/>
+      <c r="AA21" s="207"/>
+      <c r="AB21" s="207"/>
+      <c r="AC21" s="211">
         <f t="shared" si="0"/>
-        <v>11030</v>
-      </c>
-      <c r="AD21" s="254">
+        <v>6550</v>
+      </c>
+      <c r="AD21" s="207">
         <f t="shared" si="1"/>
-        <v>6165</v>
-      </c>
-      <c r="AE21" s="271">
+        <v>6370</v>
+      </c>
+      <c r="AE21" s="224">
         <f t="shared" si="2"/>
-        <v>169.53749999999999</v>
-      </c>
-      <c r="AF21" s="271">
+        <v>175.17500000000001</v>
+      </c>
+      <c r="AF21" s="224">
         <f t="shared" si="3"/>
-        <v>58.567499999999995</v>
-      </c>
-      <c r="AG21" s="259">
+        <v>60.515000000000001</v>
+      </c>
+      <c r="AG21" s="212">
         <f t="shared" si="7"/>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="AH21" s="271">
+        <v>4.95</v>
+      </c>
+      <c r="AH21" s="224">
         <f t="shared" si="4"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="AI21" s="271">
+        <v>1.71</v>
+      </c>
+      <c r="AI21" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="272"/>
-      <c r="AK21" s="272"/>
-      <c r="AL21" s="272"/>
-      <c r="AM21" s="272"/>
-      <c r="AN21" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="261">
+      <c r="AJ21" s="225"/>
+      <c r="AK21" s="225"/>
+      <c r="AL21" s="225"/>
+      <c r="AM21" s="225"/>
+      <c r="AN21" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="214">
         <f t="shared" si="9"/>
-        <v>169.8125</v>
-      </c>
-      <c r="AP21" s="273"/>
-      <c r="AQ21" s="284">
-        <v>69</v>
-      </c>
-      <c r="AR21" s="286">
+        <v>175.72499999999999</v>
+      </c>
+      <c r="AP21" s="226"/>
+      <c r="AQ21" s="237">
+        <v>60</v>
+      </c>
+      <c r="AR21" s="239">
         <f t="shared" si="10"/>
-        <v>10788.987499999999</v>
-      </c>
-      <c r="AS21" s="274">
+        <v>6309.875</v>
+      </c>
+      <c r="AS21" s="227">
         <f t="shared" ref="AS21:AS28" si="11">AF21+AH21+AI21</f>
-        <v>59.422499999999992</v>
-      </c>
-      <c r="AT21" s="274">
+        <v>62.225000000000001</v>
+      </c>
+      <c r="AT21" s="227">
         <f t="shared" ref="AT21:AT28" si="12">AS21-AQ21-AN21</f>
-        <v>-9.5775000000000077</v>
+        <v>2.2250000000000014</v>
       </c>
       <c r="AU21" s="100"/>
       <c r="AV21" s="108"/>
@@ -10925,106 +10718,98 @@
       <c r="BD21" s="100"/>
     </row>
     <row r="22" spans="1:56" ht="15.75">
-      <c r="A22" s="268">
+      <c r="A22" s="221">
         <v>16</v>
       </c>
-      <c r="B22" s="254">
+      <c r="B22" s="207">
         <v>1908446149</v>
       </c>
-      <c r="C22" s="287" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="269">
-        <v>15066</v>
-      </c>
-      <c r="E22" s="270"/>
-      <c r="F22" s="269"/>
-      <c r="G22" s="270"/>
-      <c r="H22" s="270"/>
-      <c r="I22" s="270"/>
-      <c r="J22" s="270"/>
-      <c r="K22" s="270"/>
-      <c r="L22" s="270"/>
-      <c r="M22" s="270">
-        <v>200</v>
-      </c>
-      <c r="N22" s="270"/>
-      <c r="O22" s="270"/>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="254"/>
-      <c r="R22" s="254"/>
-      <c r="S22" s="254">
-        <v>50</v>
-      </c>
-      <c r="T22" s="254"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="254"/>
-      <c r="W22" s="254"/>
-      <c r="X22" s="254"/>
-      <c r="Y22" s="254"/>
-      <c r="Z22" s="254"/>
-      <c r="AA22" s="254">
-        <v>5</v>
-      </c>
-      <c r="AB22" s="254"/>
-      <c r="AC22" s="258">
+      <c r="C22" s="240" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="222">
+        <v>18385</v>
+      </c>
+      <c r="E22" s="223"/>
+      <c r="F22" s="222"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="223"/>
+      <c r="Q22" s="207"/>
+      <c r="R22" s="207"/>
+      <c r="S22" s="207"/>
+      <c r="T22" s="207"/>
+      <c r="U22" s="207"/>
+      <c r="V22" s="207"/>
+      <c r="W22" s="207"/>
+      <c r="X22" s="207"/>
+      <c r="Y22" s="207"/>
+      <c r="Z22" s="207"/>
+      <c r="AA22" s="207"/>
+      <c r="AB22" s="207"/>
+      <c r="AC22" s="211">
         <f t="shared" si="0"/>
-        <v>27556</v>
-      </c>
-      <c r="AD22" s="254">
+        <v>18385</v>
+      </c>
+      <c r="AD22" s="207">
         <f t="shared" si="1"/>
-        <v>15066</v>
-      </c>
-      <c r="AE22" s="271">
+        <v>18385</v>
+      </c>
+      <c r="AE22" s="224">
         <f t="shared" si="2"/>
-        <v>414.315</v>
-      </c>
-      <c r="AF22" s="271">
+        <v>505.58749999999998</v>
+      </c>
+      <c r="AF22" s="224">
         <f t="shared" si="3"/>
-        <v>143.12700000000001</v>
-      </c>
-      <c r="AG22" s="259">
+        <v>174.6575</v>
+      </c>
+      <c r="AG22" s="212">
         <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="AH22" s="271">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="224">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="AI22" s="271">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="272"/>
-      <c r="AK22" s="272"/>
-      <c r="AL22" s="272"/>
-      <c r="AM22" s="272"/>
-      <c r="AN22" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="261">
+      <c r="AJ22" s="225"/>
+      <c r="AK22" s="225"/>
+      <c r="AL22" s="225"/>
+      <c r="AM22" s="225"/>
+      <c r="AN22" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="214">
         <f t="shared" si="9"/>
-        <v>419.815</v>
-      </c>
-      <c r="AP22" s="273"/>
-      <c r="AQ22" s="284">
-        <v>186</v>
-      </c>
-      <c r="AR22" s="286">
+        <v>505.58749999999998</v>
+      </c>
+      <c r="AP22" s="226"/>
+      <c r="AQ22" s="237">
+        <v>139</v>
+      </c>
+      <c r="AR22" s="239">
         <f>AC22-AE22-AG22-AJ22-AK22-AL22-AM22-AN22-AP22-AQ22</f>
-        <v>26900.685000000001</v>
-      </c>
-      <c r="AS22" s="274">
+        <v>17740.412499999999</v>
+      </c>
+      <c r="AS22" s="227">
         <f>AF22+AH22+AI22</f>
-        <v>162.12700000000001</v>
-      </c>
-      <c r="AT22" s="274">
+        <v>174.6575</v>
+      </c>
+      <c r="AT22" s="227">
         <f>AS22-AQ22-AN22</f>
-        <v>-23.87299999999999</v>
-      </c>
-      <c r="AU22" s="100">
-        <v>1300</v>
-      </c>
+        <v>35.657499999999999</v>
+      </c>
+      <c r="AU22" s="100"/>
       <c r="AV22" s="108"/>
       <c r="AW22" s="100"/>
       <c r="AX22" s="100"/>
@@ -11036,96 +10821,96 @@
       <c r="BD22" s="100"/>
     </row>
     <row r="23" spans="1:56" ht="15.75">
-      <c r="A23" s="268">
+      <c r="A23" s="221">
         <v>17</v>
       </c>
-      <c r="B23" s="254">
+      <c r="B23" s="207">
         <v>1908446150</v>
       </c>
-      <c r="C23" s="254" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="269">
-        <v>6515</v>
-      </c>
-      <c r="E23" s="270"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="270"/>
-      <c r="J23" s="270"/>
-      <c r="K23" s="270"/>
-      <c r="L23" s="270"/>
-      <c r="M23" s="270"/>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="254"/>
-      <c r="R23" s="254"/>
-      <c r="S23" s="254"/>
-      <c r="T23" s="254"/>
-      <c r="U23" s="254"/>
-      <c r="V23" s="254"/>
-      <c r="W23" s="254"/>
-      <c r="X23" s="254"/>
-      <c r="Y23" s="254"/>
-      <c r="Z23" s="254"/>
-      <c r="AA23" s="254"/>
-      <c r="AB23" s="254"/>
-      <c r="AC23" s="258">
+      <c r="C23" s="207" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="222">
+        <v>7090</v>
+      </c>
+      <c r="E23" s="223"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="223"/>
+      <c r="O23" s="223"/>
+      <c r="P23" s="223"/>
+      <c r="Q23" s="207"/>
+      <c r="R23" s="207"/>
+      <c r="S23" s="207"/>
+      <c r="T23" s="207"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="207"/>
+      <c r="AC23" s="211">
         <f t="shared" si="0"/>
-        <v>6515</v>
-      </c>
-      <c r="AD23" s="254">
+        <v>7090</v>
+      </c>
+      <c r="AD23" s="207">
         <f t="shared" si="1"/>
-        <v>6515</v>
-      </c>
-      <c r="AE23" s="271">
+        <v>7090</v>
+      </c>
+      <c r="AE23" s="224">
         <f t="shared" si="2"/>
-        <v>179.16249999999999</v>
-      </c>
-      <c r="AF23" s="271">
+        <v>194.97499999999999</v>
+      </c>
+      <c r="AF23" s="224">
         <f t="shared" si="3"/>
-        <v>61.892499999999998</v>
-      </c>
-      <c r="AG23" s="259">
+        <v>67.355000000000004</v>
+      </c>
+      <c r="AG23" s="212">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH23" s="271">
+      <c r="AH23" s="224">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="271">
+      <c r="AI23" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="272"/>
-      <c r="AK23" s="272"/>
-      <c r="AL23" s="272"/>
-      <c r="AM23" s="272"/>
-      <c r="AN23" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="261">
+      <c r="AJ23" s="225"/>
+      <c r="AK23" s="225"/>
+      <c r="AL23" s="225"/>
+      <c r="AM23" s="225"/>
+      <c r="AN23" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="214">
         <f t="shared" si="9"/>
-        <v>179.16249999999999</v>
-      </c>
-      <c r="AP23" s="273"/>
-      <c r="AQ23" s="284">
+        <v>194.97499999999999</v>
+      </c>
+      <c r="AP23" s="226"/>
+      <c r="AQ23" s="237">
         <v>70</v>
       </c>
-      <c r="AR23" s="286">
+      <c r="AR23" s="239">
         <f t="shared" si="10"/>
-        <v>6265.8374999999996</v>
-      </c>
-      <c r="AS23" s="274">
+        <v>6825.0249999999996</v>
+      </c>
+      <c r="AS23" s="227">
         <f t="shared" si="11"/>
-        <v>61.892499999999998</v>
-      </c>
-      <c r="AT23" s="274">
+        <v>67.355000000000004</v>
+      </c>
+      <c r="AT23" s="227">
         <f t="shared" si="12"/>
-        <v>-8.1075000000000017</v>
+        <v>-2.644999999999996</v>
       </c>
       <c r="AU23" s="100"/>
       <c r="AV23" s="108"/>
@@ -11139,104 +10924,100 @@
       <c r="BD23" s="100"/>
     </row>
     <row r="24" spans="1:56" ht="15.75">
-      <c r="A24" s="268">
+      <c r="A24" s="221">
         <v>18</v>
       </c>
-      <c r="B24" s="254">
+      <c r="B24" s="207">
         <v>1908446151</v>
       </c>
-      <c r="C24" s="254" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="269">
-        <v>16150</v>
-      </c>
-      <c r="E24" s="270"/>
-      <c r="F24" s="269"/>
-      <c r="G24" s="270"/>
-      <c r="H24" s="270"/>
-      <c r="I24" s="270"/>
-      <c r="J24" s="270"/>
-      <c r="K24" s="270"/>
-      <c r="L24" s="270"/>
-      <c r="M24" s="270">
-        <v>700</v>
-      </c>
-      <c r="N24" s="270"/>
-      <c r="O24" s="270"/>
-      <c r="P24" s="270">
-        <v>120</v>
-      </c>
-      <c r="Q24" s="254"/>
-      <c r="R24" s="254"/>
-      <c r="S24" s="254">
+      <c r="C24" s="207" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="222">
+        <v>17180</v>
+      </c>
+      <c r="E24" s="223"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223">
         <v>50</v>
       </c>
-      <c r="T24" s="254"/>
-      <c r="U24" s="254"/>
-      <c r="V24" s="254"/>
-      <c r="W24" s="254"/>
-      <c r="X24" s="254"/>
-      <c r="Y24" s="254"/>
-      <c r="Z24" s="254"/>
-      <c r="AA24" s="254">
-        <v>10</v>
-      </c>
-      <c r="AB24" s="254"/>
-      <c r="AC24" s="258">
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
+      <c r="P24" s="223">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="207"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="207"/>
+      <c r="W24" s="207"/>
+      <c r="X24" s="207"/>
+      <c r="Y24" s="207"/>
+      <c r="Z24" s="207"/>
+      <c r="AA24" s="207"/>
+      <c r="AB24" s="207"/>
+      <c r="AC24" s="211">
         <f t="shared" si="0"/>
-        <v>35660</v>
-      </c>
-      <c r="AD24" s="254">
+        <v>18580</v>
+      </c>
+      <c r="AD24" s="207">
         <f t="shared" si="1"/>
-        <v>16150</v>
-      </c>
-      <c r="AE24" s="271">
+        <v>17180</v>
+      </c>
+      <c r="AE24" s="224">
         <f t="shared" si="2"/>
-        <v>444.125</v>
-      </c>
-      <c r="AF24" s="271">
+        <v>472.45</v>
+      </c>
+      <c r="AF24" s="224">
         <f t="shared" si="3"/>
-        <v>153.42499999999998</v>
-      </c>
-      <c r="AG24" s="259">
+        <v>163.21</v>
+      </c>
+      <c r="AG24" s="212">
         <f t="shared" si="7"/>
-        <v>222.2</v>
-      </c>
-      <c r="AH24" s="271">
+        <v>38.5</v>
+      </c>
+      <c r="AH24" s="224">
         <f t="shared" si="4"/>
-        <v>76.760000000000005</v>
-      </c>
-      <c r="AI24" s="271">
+        <v>13.299999999999999</v>
+      </c>
+      <c r="AI24" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="254"/>
-      <c r="AK24" s="254"/>
+      <c r="AJ24" s="207"/>
+      <c r="AK24" s="207"/>
       <c r="AL24" s="76"/>
       <c r="AM24" s="76"/>
-      <c r="AN24" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="261">
+      <c r="AN24" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="214">
         <f t="shared" si="9"/>
-        <v>466.67500000000001</v>
-      </c>
-      <c r="AP24" s="273"/>
-      <c r="AQ24" s="284">
-        <v>124</v>
-      </c>
-      <c r="AR24" s="286">
+        <v>476.57499999999999</v>
+      </c>
+      <c r="AP24" s="226"/>
+      <c r="AQ24" s="237">
+        <v>119</v>
+      </c>
+      <c r="AR24" s="239">
         <f t="shared" si="10"/>
-        <v>34869.675000000003</v>
-      </c>
-      <c r="AS24" s="274">
+        <v>17950.05</v>
+      </c>
+      <c r="AS24" s="227">
         <f t="shared" si="11"/>
-        <v>230.185</v>
-      </c>
-      <c r="AT24" s="274">
+        <v>176.51000000000002</v>
+      </c>
+      <c r="AT24" s="227">
         <f t="shared" si="12"/>
-        <v>106.185</v>
+        <v>57.510000000000019</v>
       </c>
       <c r="AU24" s="100"/>
       <c r="AV24" s="108"/>
@@ -11250,96 +11031,100 @@
       <c r="BD24" s="100"/>
     </row>
     <row r="25" spans="1:56" ht="15.75">
-      <c r="A25" s="268">
+      <c r="A25" s="221">
         <v>19</v>
       </c>
-      <c r="B25" s="254">
+      <c r="B25" s="207">
         <v>1908446152</v>
       </c>
-      <c r="C25" s="254" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="269">
-        <v>10085</v>
-      </c>
-      <c r="E25" s="270"/>
-      <c r="F25" s="269"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="270"/>
-      <c r="J25" s="270"/>
-      <c r="K25" s="270"/>
-      <c r="L25" s="270"/>
-      <c r="M25" s="270"/>
-      <c r="N25" s="270"/>
-      <c r="O25" s="270"/>
-      <c r="P25" s="270"/>
-      <c r="Q25" s="254"/>
-      <c r="R25" s="254"/>
-      <c r="S25" s="254"/>
-      <c r="T25" s="254"/>
-      <c r="U25" s="254"/>
-      <c r="V25" s="254"/>
-      <c r="W25" s="254"/>
-      <c r="X25" s="254"/>
-      <c r="Y25" s="254"/>
-      <c r="Z25" s="254"/>
-      <c r="AA25" s="254"/>
-      <c r="AB25" s="254"/>
-      <c r="AC25" s="258">
+      <c r="C25" s="207" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="222">
+        <v>6169</v>
+      </c>
+      <c r="E25" s="223"/>
+      <c r="F25" s="222"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="223"/>
+      <c r="O25" s="223"/>
+      <c r="P25" s="223"/>
+      <c r="Q25" s="207"/>
+      <c r="R25" s="207"/>
+      <c r="S25" s="207">
+        <v>40</v>
+      </c>
+      <c r="T25" s="207"/>
+      <c r="U25" s="207"/>
+      <c r="V25" s="207"/>
+      <c r="W25" s="207"/>
+      <c r="X25" s="207"/>
+      <c r="Y25" s="207"/>
+      <c r="Z25" s="207"/>
+      <c r="AA25" s="207">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="207"/>
+      <c r="AC25" s="211">
         <f t="shared" si="0"/>
-        <v>10085</v>
-      </c>
-      <c r="AD25" s="254">
+        <v>18509</v>
+      </c>
+      <c r="AD25" s="207">
         <f t="shared" si="1"/>
-        <v>10085</v>
-      </c>
-      <c r="AE25" s="271">
+        <v>6169</v>
+      </c>
+      <c r="AE25" s="224">
         <f t="shared" si="2"/>
-        <v>277.33749999999998</v>
-      </c>
-      <c r="AF25" s="271">
+        <v>169.64750000000001</v>
+      </c>
+      <c r="AF25" s="224">
         <f t="shared" si="3"/>
-        <v>95.807500000000005</v>
-      </c>
-      <c r="AG25" s="259">
+        <v>58.605499999999999</v>
+      </c>
+      <c r="AG25" s="212">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH25" s="271">
+      <c r="AH25" s="224">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI25" s="271">
+      <c r="AI25" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ25" s="272"/>
-      <c r="AK25" s="272"/>
-      <c r="AL25" s="272"/>
-      <c r="AM25" s="272"/>
-      <c r="AN25" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="261">
+      <c r="AJ25" s="225"/>
+      <c r="AK25" s="225"/>
+      <c r="AL25" s="225"/>
+      <c r="AM25" s="225"/>
+      <c r="AN25" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="214">
         <f t="shared" si="9"/>
-        <v>277.33749999999998</v>
-      </c>
-      <c r="AP25" s="273"/>
-      <c r="AQ25" s="284">
-        <v>95</v>
-      </c>
-      <c r="AR25" s="286">
+        <v>169.64750000000001</v>
+      </c>
+      <c r="AP25" s="226"/>
+      <c r="AQ25" s="237">
+        <v>60</v>
+      </c>
+      <c r="AR25" s="239">
         <f t="shared" si="10"/>
-        <v>9712.6625000000004</v>
-      </c>
-      <c r="AS25" s="274">
+        <v>18279.352500000001</v>
+      </c>
+      <c r="AS25" s="227">
         <f t="shared" si="11"/>
-        <v>95.807500000000005</v>
-      </c>
-      <c r="AT25" s="274">
+        <v>58.605499999999999</v>
+      </c>
+      <c r="AT25" s="227">
         <f t="shared" si="12"/>
-        <v>0.80750000000000455</v>
+        <v>-1.3945000000000007</v>
       </c>
       <c r="AU25" s="100"/>
       <c r="AV25" s="108"/>
@@ -11353,106 +11138,102 @@
       <c r="BD25" s="100"/>
     </row>
     <row r="26" spans="1:56" ht="15.75">
-      <c r="A26" s="268">
+      <c r="A26" s="221">
         <v>20</v>
       </c>
-      <c r="B26" s="254">
+      <c r="B26" s="207">
         <v>1908446153</v>
       </c>
-      <c r="C26" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="269">
-        <v>4646</v>
-      </c>
-      <c r="E26" s="270"/>
-      <c r="F26" s="269"/>
-      <c r="G26" s="270"/>
-      <c r="H26" s="270"/>
-      <c r="I26" s="270"/>
-      <c r="J26" s="270"/>
-      <c r="K26" s="269">
+      <c r="C26" s="241" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="222">
+        <v>15522</v>
+      </c>
+      <c r="E26" s="223"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="222"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223">
         <v>100</v>
       </c>
-      <c r="L26" s="270"/>
-      <c r="M26" s="270">
-        <v>100</v>
-      </c>
-      <c r="N26" s="270"/>
-      <c r="O26" s="270">
-        <v>20</v>
-      </c>
-      <c r="P26" s="270">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="254"/>
-      <c r="R26" s="254"/>
-      <c r="S26" s="254">
-        <v>10</v>
-      </c>
-      <c r="T26" s="254"/>
-      <c r="U26" s="254"/>
-      <c r="V26" s="254"/>
-      <c r="W26" s="254"/>
-      <c r="X26" s="254"/>
-      <c r="Y26" s="254"/>
-      <c r="Z26" s="254"/>
-      <c r="AA26" s="254"/>
-      <c r="AB26" s="254"/>
-      <c r="AC26" s="258">
+      <c r="N26" s="223"/>
+      <c r="O26" s="223"/>
+      <c r="P26" s="223">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="207"/>
+      <c r="S26" s="207">
+        <v>15</v>
+      </c>
+      <c r="T26" s="207"/>
+      <c r="U26" s="207"/>
+      <c r="V26" s="207"/>
+      <c r="W26" s="207"/>
+      <c r="X26" s="207"/>
+      <c r="Y26" s="207"/>
+      <c r="Z26" s="207"/>
+      <c r="AA26" s="207"/>
+      <c r="AB26" s="207"/>
+      <c r="AC26" s="211">
         <f t="shared" si="0"/>
-        <v>10636</v>
-      </c>
-      <c r="AD26" s="254">
+        <v>20737</v>
+      </c>
+      <c r="AD26" s="207">
         <f t="shared" si="1"/>
-        <v>4646</v>
-      </c>
-      <c r="AE26" s="271">
+        <v>15522</v>
+      </c>
+      <c r="AE26" s="224">
         <f t="shared" si="2"/>
-        <v>127.765</v>
-      </c>
-      <c r="AF26" s="271">
+        <v>426.85500000000002</v>
+      </c>
+      <c r="AF26" s="224">
         <f t="shared" si="3"/>
-        <v>44.137</v>
-      </c>
-      <c r="AG26" s="259">
+        <v>147.459</v>
+      </c>
+      <c r="AG26" s="212">
         <f t="shared" si="7"/>
-        <v>112.2</v>
-      </c>
-      <c r="AH26" s="271">
+        <v>64.625</v>
+      </c>
+      <c r="AH26" s="224">
         <f t="shared" si="4"/>
-        <v>38.76</v>
-      </c>
-      <c r="AI26" s="271">
+        <v>22.324999999999999</v>
+      </c>
+      <c r="AI26" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ26" s="272"/>
-      <c r="AK26" s="272"/>
-      <c r="AL26" s="272"/>
-      <c r="AM26" s="272"/>
-      <c r="AN26" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="261">
+      <c r="AJ26" s="225"/>
+      <c r="AK26" s="225"/>
+      <c r="AL26" s="225"/>
+      <c r="AM26" s="225"/>
+      <c r="AN26" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="214">
         <f t="shared" si="9"/>
-        <v>136.565</v>
-      </c>
-      <c r="AP26" s="273"/>
-      <c r="AQ26" s="284">
-        <v>80</v>
-      </c>
-      <c r="AR26" s="286">
+        <v>433.73</v>
+      </c>
+      <c r="AP26" s="226"/>
+      <c r="AQ26" s="237">
+        <v>154</v>
+      </c>
+      <c r="AR26" s="239">
         <f t="shared" si="10"/>
-        <v>10316.035</v>
-      </c>
-      <c r="AS26" s="274">
+        <v>20091.52</v>
+      </c>
+      <c r="AS26" s="227">
         <f t="shared" si="11"/>
-        <v>82.896999999999991</v>
-      </c>
-      <c r="AT26" s="274">
+        <v>169.78399999999999</v>
+      </c>
+      <c r="AT26" s="227">
         <f t="shared" si="12"/>
-        <v>2.8969999999999914</v>
+        <v>15.783999999999992</v>
       </c>
       <c r="AU26" s="100"/>
       <c r="AV26" s="100"/>
@@ -11466,102 +11247,104 @@
       <c r="BD26" s="100"/>
     </row>
     <row r="27" spans="1:56" ht="15.75">
-      <c r="A27" s="268">
+      <c r="A27" s="221">
         <v>21</v>
       </c>
-      <c r="B27" s="254">
+      <c r="B27" s="207">
         <v>1908446154</v>
       </c>
-      <c r="C27" s="254" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="269">
-        <v>4317</v>
-      </c>
-      <c r="E27" s="270"/>
-      <c r="F27" s="269"/>
-      <c r="G27" s="270"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="270"/>
-      <c r="J27" s="270"/>
-      <c r="K27" s="269">
-        <v>40</v>
-      </c>
-      <c r="L27" s="270"/>
-      <c r="M27" s="270"/>
-      <c r="N27" s="270"/>
-      <c r="O27" s="270"/>
-      <c r="P27" s="270">
-        <v>170</v>
-      </c>
-      <c r="Q27" s="254"/>
-      <c r="R27" s="254"/>
-      <c r="S27" s="254">
+      <c r="C27" s="207" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="222">
+        <v>5344</v>
+      </c>
+      <c r="E27" s="223"/>
+      <c r="F27" s="222"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="222">
         <v>20</v>
       </c>
-      <c r="T27" s="254"/>
-      <c r="U27" s="254"/>
-      <c r="V27" s="254"/>
-      <c r="W27" s="254"/>
-      <c r="X27" s="254"/>
-      <c r="Y27" s="254"/>
-      <c r="Z27" s="254"/>
-      <c r="AA27" s="254"/>
-      <c r="AB27" s="254"/>
-      <c r="AC27" s="258">
+      <c r="L27" s="223"/>
+      <c r="M27" s="223">
+        <v>30</v>
+      </c>
+      <c r="N27" s="223"/>
+      <c r="O27" s="223"/>
+      <c r="P27" s="223">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="207"/>
+      <c r="R27" s="207"/>
+      <c r="S27" s="207">
+        <v>10</v>
+      </c>
+      <c r="T27" s="207"/>
+      <c r="U27" s="207"/>
+      <c r="V27" s="207"/>
+      <c r="W27" s="207"/>
+      <c r="X27" s="207"/>
+      <c r="Y27" s="207"/>
+      <c r="Z27" s="207"/>
+      <c r="AA27" s="207"/>
+      <c r="AB27" s="207"/>
+      <c r="AC27" s="211">
         <f t="shared" si="0"/>
-        <v>10467</v>
-      </c>
-      <c r="AD27" s="254">
+        <v>8224</v>
+      </c>
+      <c r="AD27" s="207">
         <f t="shared" si="1"/>
-        <v>4317</v>
-      </c>
-      <c r="AE27" s="271">
+        <v>5344</v>
+      </c>
+      <c r="AE27" s="224">
         <f t="shared" si="2"/>
-        <v>118.7175</v>
-      </c>
-      <c r="AF27" s="271">
+        <v>146.96</v>
+      </c>
+      <c r="AF27" s="224">
         <f t="shared" si="3"/>
-        <v>41.011499999999998</v>
-      </c>
-      <c r="AG27" s="259">
+        <v>50.768000000000001</v>
+      </c>
+      <c r="AG27" s="212">
         <f t="shared" si="7"/>
-        <v>64.075000000000003</v>
-      </c>
-      <c r="AH27" s="271">
+        <v>26.675000000000001</v>
+      </c>
+      <c r="AH27" s="224">
         <f t="shared" si="4"/>
-        <v>22.134999999999998</v>
-      </c>
-      <c r="AI27" s="271">
+        <v>9.2149999999999999</v>
+      </c>
+      <c r="AI27" s="224">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ27" s="272"/>
-      <c r="AK27" s="272"/>
-      <c r="AL27" s="272"/>
-      <c r="AM27" s="272"/>
-      <c r="AN27" s="260">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="261">
+      <c r="AJ27" s="225"/>
+      <c r="AK27" s="225"/>
+      <c r="AL27" s="225"/>
+      <c r="AM27" s="225"/>
+      <c r="AN27" s="213">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="214">
         <f t="shared" si="9"/>
-        <v>124.49250000000001</v>
-      </c>
-      <c r="AP27" s="273"/>
-      <c r="AQ27" s="284">
-        <v>100</v>
-      </c>
-      <c r="AR27" s="286">
+        <v>149.16</v>
+      </c>
+      <c r="AP27" s="226"/>
+      <c r="AQ27" s="237">
+        <v>80</v>
+      </c>
+      <c r="AR27" s="239">
         <f t="shared" si="10"/>
-        <v>10184.207499999999</v>
-      </c>
-      <c r="AS27" s="274">
+        <v>7970.3649999999998</v>
+      </c>
+      <c r="AS27" s="227">
         <f t="shared" si="11"/>
-        <v>63.146499999999996</v>
-      </c>
-      <c r="AT27" s="274">
+        <v>59.983000000000004</v>
+      </c>
+      <c r="AT27" s="227">
         <f t="shared" si="12"/>
-        <v>-36.853500000000004</v>
+        <v>-20.016999999999996</v>
       </c>
       <c r="AU27" s="100"/>
       <c r="AV27" s="100"/>
@@ -11575,86 +11358,86 @@
       <c r="BD27" s="100"/>
     </row>
     <row r="28" spans="1:56" ht="16.5" thickBot="1">
-      <c r="A28" s="289">
+      <c r="A28" s="242">
         <v>22</v>
       </c>
-      <c r="B28" s="290"/>
-      <c r="C28" s="291"/>
-      <c r="D28" s="292"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
-      <c r="K28" s="290"/>
-      <c r="L28" s="290"/>
-      <c r="M28" s="290"/>
-      <c r="N28" s="290"/>
-      <c r="O28" s="290"/>
-      <c r="P28" s="290"/>
-      <c r="Q28" s="278"/>
-      <c r="R28" s="278"/>
-      <c r="S28" s="278"/>
-      <c r="T28" s="278"/>
-      <c r="U28" s="278"/>
-      <c r="V28" s="278"/>
-      <c r="W28" s="278"/>
-      <c r="X28" s="278"/>
-      <c r="Y28" s="278"/>
-      <c r="Z28" s="278"/>
-      <c r="AA28" s="278"/>
-      <c r="AB28" s="278"/>
-      <c r="AC28" s="258">
+      <c r="B28" s="243"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="245"/>
+      <c r="E28" s="243"/>
+      <c r="F28" s="245"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="243"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="243"/>
+      <c r="K28" s="243"/>
+      <c r="L28" s="243"/>
+      <c r="M28" s="243"/>
+      <c r="N28" s="243"/>
+      <c r="O28" s="243"/>
+      <c r="P28" s="243"/>
+      <c r="Q28" s="231"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="231"/>
+      <c r="Y28" s="231"/>
+      <c r="Z28" s="231"/>
+      <c r="AA28" s="231"/>
+      <c r="AB28" s="231"/>
+      <c r="AC28" s="211">
         <f t="shared" ref="AC28" si="13">D28*1+E28*999+F28*499+G28*75+H28*50+I28*30+K28*20+L28*19+M28*10+P28*9+N28*10+J28*29+S28*191+V28*4744+W28*110+X28*450+Y28*110+Z28*110+AA28*188+AB28*182+U28*30+T28*350+R28*4+Q28*5+O28*9</f>
         <v>0</v>
       </c>
-      <c r="AD28" s="278">
+      <c r="AD28" s="231">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="293">
+      <c r="AE28" s="246">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="293">
+      <c r="AF28" s="246">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="294">
+      <c r="AG28" s="247">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH28" s="293">
+      <c r="AH28" s="246">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI28" s="293">
+      <c r="AI28" s="246">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ28" s="295"/>
-      <c r="AK28" s="295"/>
-      <c r="AL28" s="295"/>
-      <c r="AM28" s="295"/>
-      <c r="AN28" s="296">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="261">
+      <c r="AJ28" s="248"/>
+      <c r="AK28" s="248"/>
+      <c r="AL28" s="248"/>
+      <c r="AM28" s="248"/>
+      <c r="AN28" s="249">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="214">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP28" s="297"/>
-      <c r="AQ28" s="298"/>
-      <c r="AR28" s="299">
+      <c r="AP28" s="250"/>
+      <c r="AQ28" s="251"/>
+      <c r="AR28" s="252">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AS28" s="300">
+      <c r="AS28" s="253">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AT28" s="300">
+      <c r="AT28" s="253">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -11669,319 +11452,319 @@
       <c r="BC28" s="100"/>
       <c r="BD28" s="100"/>
     </row>
-    <row r="29" spans="1:56" s="310" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="301" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="302"/>
-      <c r="C29" s="302"/>
-      <c r="D29" s="303">
+    <row r="29" spans="1:56" s="261" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A29" s="332" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="333"/>
+      <c r="C29" s="333"/>
+      <c r="D29" s="254">
         <f t="shared" ref="D29:AT29" si="14">SUM(D7:D28)</f>
-        <v>226673</v>
-      </c>
-      <c r="E29" s="303">
+        <v>235341</v>
+      </c>
+      <c r="E29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F29" s="303">
+      <c r="F29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G29" s="303">
+      <c r="G29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H29" s="303">
+      <c r="H29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I29" s="303">
+      <c r="I29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J29" s="303">
+      <c r="J29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K29" s="303">
+      <c r="K29" s="254">
         <f>SUM(K7:K27)</f>
-        <v>450</v>
-      </c>
-      <c r="L29" s="303">
+        <v>280</v>
+      </c>
+      <c r="L29" s="254">
         <f t="shared" ref="L29:N29" si="15">SUM(L7:L18)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="303">
+      <c r="M29" s="254">
         <f>SUM(M7:M27)</f>
-        <v>1690</v>
-      </c>
-      <c r="N29" s="303">
+        <v>820</v>
+      </c>
+      <c r="N29" s="254">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O29" s="303">
+      <c r="O29" s="254">
         <f>SUM(O7:O27)</f>
-        <v>120</v>
-      </c>
-      <c r="P29" s="303">
+        <v>200</v>
+      </c>
+      <c r="P29" s="254">
         <f>SUM(P7:P27)</f>
-        <v>2090</v>
-      </c>
-      <c r="Q29" s="303">
+        <v>1930</v>
+      </c>
+      <c r="Q29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R29" s="303">
+      <c r="R29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S29" s="303">
+      <c r="S29" s="254">
         <f t="shared" si="14"/>
-        <v>356</v>
-      </c>
-      <c r="T29" s="303">
+        <v>148</v>
+      </c>
+      <c r="T29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U29" s="303">
+      <c r="U29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V29" s="303">
+      <c r="V29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W29" s="303">
+      <c r="W29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X29" s="303">
+      <c r="X29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="303">
+      <c r="Y29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="303">
+      <c r="Z29" s="254">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="303">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="254">
         <f t="shared" si="14"/>
-        <v>63</v>
-      </c>
-      <c r="AB29" s="303">
+        <v>47</v>
+      </c>
+      <c r="AB29" s="254">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="304">
+      <c r="AC29" s="255">
         <f t="shared" si="14"/>
-        <v>352303</v>
-      </c>
-      <c r="AD29" s="304">
+        <v>305606</v>
+      </c>
+      <c r="AD29" s="255">
         <f t="shared" si="14"/>
-        <v>226673</v>
-      </c>
-      <c r="AE29" s="304">
+        <v>235341</v>
+      </c>
+      <c r="AE29" s="255">
         <f t="shared" si="14"/>
-        <v>6233.5074999999997</v>
-      </c>
-      <c r="AF29" s="304">
+        <v>6471.8775000000014</v>
+      </c>
+      <c r="AF29" s="255">
         <f t="shared" si="14"/>
-        <v>2153.3935000000001</v>
-      </c>
-      <c r="AG29" s="304">
+        <v>2235.7395000000001</v>
+      </c>
+      <c r="AG29" s="255">
         <f t="shared" si="14"/>
-        <v>1259.2250000000001</v>
-      </c>
-      <c r="AH29" s="304">
+        <v>909.74999999999989</v>
+      </c>
+      <c r="AH29" s="255">
         <f t="shared" si="14"/>
-        <v>435.005</v>
-      </c>
-      <c r="AI29" s="304">
+        <v>313.21499999999997</v>
+      </c>
+      <c r="AI29" s="255">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="304">
+      <c r="AJ29" s="255">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="304">
+      <c r="AK29" s="255">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="304">
+      <c r="AL29" s="255">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="304">
+      <c r="AM29" s="255">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="304">
+      <c r="AN29" s="255">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO29" s="305">
+      <c r="AO29" s="256">
         <f>SUM(AO7:AO28)</f>
-        <v>6353.1324999999997</v>
-      </c>
-      <c r="AP29" s="304">
+        <v>6560.7025000000012</v>
+      </c>
+      <c r="AP29" s="255">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="306">
+      <c r="AQ29" s="257">
         <f t="shared" si="14"/>
-        <v>2849</v>
-      </c>
-      <c r="AR29" s="307">
+        <v>2246</v>
+      </c>
+      <c r="AR29" s="258">
         <f>SUM(AR7:AR28)</f>
-        <v>341961.26749999996</v>
-      </c>
-      <c r="AS29" s="307">
+        <v>295978.3725</v>
+      </c>
+      <c r="AS29" s="258">
         <f>SUM(AS7:AS28)</f>
-        <v>2588.3984999999993</v>
-      </c>
-      <c r="AT29" s="307">
+        <v>2548.9545000000007</v>
+      </c>
+      <c r="AT29" s="258">
         <f t="shared" si="14"/>
-        <v>-260.60150000000004</v>
-      </c>
-      <c r="AU29" s="308"/>
-      <c r="AV29" s="308"/>
-      <c r="AW29" s="309"/>
-      <c r="AX29" s="309"/>
-      <c r="AY29" s="309"/>
-      <c r="AZ29" s="309"/>
-      <c r="BA29" s="309"/>
-      <c r="BB29" s="309"/>
-      <c r="BC29" s="309"/>
-      <c r="BD29" s="309"/>
+        <v>302.95450000000011</v>
+      </c>
+      <c r="AU29" s="259"/>
+      <c r="AV29" s="259"/>
+      <c r="AW29" s="260"/>
+      <c r="AX29" s="260"/>
+      <c r="AY29" s="260"/>
+      <c r="AZ29" s="260"/>
+      <c r="BA29" s="260"/>
+      <c r="BB29" s="260"/>
+      <c r="BC29" s="260"/>
+      <c r="BD29" s="260"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="311" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="312"/>
-      <c r="C30" s="313"/>
-      <c r="D30" s="314">
+      <c r="A30" s="334" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="335"/>
+      <c r="C30" s="262"/>
+      <c r="D30" s="263">
         <f t="shared" ref="D30:AB30" si="16">D4+D5-D29</f>
-        <v>900556</v>
-      </c>
-      <c r="E30" s="314">
+        <v>665215</v>
+      </c>
+      <c r="E30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F30" s="314">
+      <c r="F30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G30" s="314">
+      <c r="G30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H30" s="314">
+      <c r="H30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I30" s="314">
+      <c r="I30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J30" s="314">
+      <c r="J30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K30" s="314">
+      <c r="K30" s="263">
         <f t="shared" si="16"/>
-        <v>1380</v>
-      </c>
-      <c r="L30" s="314">
+        <v>1100</v>
+      </c>
+      <c r="L30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M30" s="314">
+      <c r="M30" s="263">
         <f t="shared" si="16"/>
-        <v>3620</v>
-      </c>
-      <c r="N30" s="314">
+        <v>2800</v>
+      </c>
+      <c r="N30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O30" s="314">
+      <c r="O30" s="263">
         <f t="shared" si="16"/>
-        <v>1520</v>
-      </c>
-      <c r="P30" s="314">
+        <v>1320</v>
+      </c>
+      <c r="P30" s="263">
         <f t="shared" si="16"/>
-        <v>3500</v>
-      </c>
-      <c r="Q30" s="314">
+        <v>1570</v>
+      </c>
+      <c r="Q30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R30" s="314">
+      <c r="R30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S30" s="314">
+      <c r="S30" s="263">
         <f t="shared" si="16"/>
-        <v>482</v>
-      </c>
-      <c r="T30" s="314">
+        <v>334</v>
+      </c>
+      <c r="T30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U30" s="314">
+      <c r="U30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V30" s="314">
+      <c r="V30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W30" s="314">
+      <c r="W30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X30" s="314">
+      <c r="X30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="314">
+      <c r="Y30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="314">
+      <c r="Z30" s="263">
         <f t="shared" si="16"/>
-        <v>290</v>
-      </c>
-      <c r="AA30" s="314">
+        <v>289</v>
+      </c>
+      <c r="AA30" s="263">
         <f t="shared" si="16"/>
-        <v>436</v>
-      </c>
-      <c r="AB30" s="314">
+        <v>389</v>
+      </c>
+      <c r="AB30" s="263">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="315"/>
-      <c r="AD30" s="313"/>
-      <c r="AE30" s="313"/>
-      <c r="AF30" s="313"/>
-      <c r="AG30" s="313"/>
-      <c r="AH30" s="313"/>
-      <c r="AI30" s="313"/>
-      <c r="AJ30" s="313"/>
-      <c r="AK30" s="313"/>
-      <c r="AL30" s="313"/>
-      <c r="AM30" s="313"/>
-      <c r="AN30" s="313"/>
-      <c r="AO30" s="316"/>
-      <c r="AP30" s="317"/>
-      <c r="AQ30" s="317"/>
-      <c r="AR30" s="317"/>
-      <c r="AS30" s="317"/>
-      <c r="AT30" s="317"/>
+      <c r="AC30" s="264"/>
+      <c r="AD30" s="262"/>
+      <c r="AE30" s="262"/>
+      <c r="AF30" s="262"/>
+      <c r="AG30" s="262"/>
+      <c r="AH30" s="262"/>
+      <c r="AI30" s="262"/>
+      <c r="AJ30" s="262"/>
+      <c r="AK30" s="262"/>
+      <c r="AL30" s="262"/>
+      <c r="AM30" s="262"/>
+      <c r="AN30" s="262"/>
+      <c r="AO30" s="265"/>
+      <c r="AP30" s="266"/>
+      <c r="AQ30" s="266"/>
+      <c r="AR30" s="266"/>
+      <c r="AS30" s="266"/>
+      <c r="AT30" s="266"/>
       <c r="AV30" s="100"/>
       <c r="AW30" s="100"/>
       <c r="AX30" s="100"/>
@@ -11993,58 +11776,58 @@
       <c r="BD30" s="100"/>
     </row>
     <row r="31" spans="1:56">
-      <c r="A31" s="318"/>
-      <c r="B31" s="318"/>
-      <c r="C31" s="319"/>
-      <c r="D31" s="318"/>
-      <c r="E31" s="320"/>
-      <c r="F31" s="320"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="320"/>
-      <c r="J31" s="320"/>
-      <c r="K31" s="321">
+      <c r="A31" s="267"/>
+      <c r="B31" s="267"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="269"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="269"/>
+      <c r="I31" s="269"/>
+      <c r="J31" s="269"/>
+      <c r="K31" s="270">
         <v>-100</v>
       </c>
-      <c r="L31" s="321"/>
-      <c r="M31" s="321"/>
-      <c r="N31" s="321"/>
-      <c r="O31" s="321">
+      <c r="L31" s="270"/>
+      <c r="M31" s="270"/>
+      <c r="N31" s="270"/>
+      <c r="O31" s="270">
         <v>-60</v>
       </c>
-      <c r="P31" s="321">
+      <c r="P31" s="270">
         <v>-150</v>
       </c>
-      <c r="Q31" s="320"/>
-      <c r="R31" s="320"/>
-      <c r="S31" s="319"/>
-      <c r="T31" s="319"/>
-      <c r="U31" s="319"/>
-      <c r="V31" s="319"/>
-      <c r="W31" s="319"/>
-      <c r="X31" s="319"/>
-      <c r="Y31" s="319"/>
-      <c r="Z31" s="319"/>
-      <c r="AA31" s="319"/>
-      <c r="AB31" s="319"/>
-      <c r="AC31" s="319"/>
-      <c r="AD31" s="319"/>
-      <c r="AE31" s="319"/>
-      <c r="AF31" s="319"/>
-      <c r="AG31" s="319"/>
-      <c r="AH31" s="319"/>
-      <c r="AI31" s="319"/>
-      <c r="AJ31" s="319"/>
-      <c r="AK31" s="319"/>
-      <c r="AL31" s="319"/>
-      <c r="AM31" s="319"/>
-      <c r="AN31" s="319"/>
-      <c r="AO31" s="322"/>
-      <c r="AP31" s="319"/>
-      <c r="AQ31" s="319"/>
-      <c r="AR31" s="319"/>
-      <c r="AS31" s="319"/>
-      <c r="AT31" s="319"/>
+      <c r="Q31" s="269"/>
+      <c r="R31" s="269"/>
+      <c r="S31" s="268"/>
+      <c r="T31" s="268"/>
+      <c r="U31" s="268"/>
+      <c r="V31" s="268"/>
+      <c r="W31" s="268"/>
+      <c r="X31" s="268"/>
+      <c r="Y31" s="268"/>
+      <c r="Z31" s="268"/>
+      <c r="AA31" s="268"/>
+      <c r="AB31" s="268"/>
+      <c r="AC31" s="268"/>
+      <c r="AD31" s="268"/>
+      <c r="AE31" s="268"/>
+      <c r="AF31" s="268"/>
+      <c r="AG31" s="268"/>
+      <c r="AH31" s="268"/>
+      <c r="AI31" s="268"/>
+      <c r="AJ31" s="268"/>
+      <c r="AK31" s="268"/>
+      <c r="AL31" s="268"/>
+      <c r="AM31" s="268"/>
+      <c r="AN31" s="268"/>
+      <c r="AO31" s="271"/>
+      <c r="AP31" s="268"/>
+      <c r="AQ31" s="268"/>
+      <c r="AR31" s="268"/>
+      <c r="AS31" s="268"/>
+      <c r="AT31" s="268"/>
       <c r="AV31" s="100"/>
       <c r="AW31" s="100"/>
       <c r="AX31" s="100"/>
@@ -12059,88 +11842,88 @@
       <c r="A32" s="100"/>
       <c r="B32" s="100"/>
       <c r="C32" s="85"/>
-      <c r="D32" s="323" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="323"/>
-      <c r="F32" s="323"/>
-      <c r="G32" s="323"/>
-      <c r="H32" s="323"/>
-      <c r="I32" s="323"/>
-      <c r="J32" s="323"/>
-      <c r="K32" s="323"/>
-      <c r="L32" s="323"/>
-      <c r="M32" s="323"/>
-      <c r="O32" s="324"/>
-      <c r="P32" s="267"/>
+      <c r="D32" s="336" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="336"/>
+      <c r="F32" s="336"/>
+      <c r="G32" s="336"/>
+      <c r="H32" s="336"/>
+      <c r="I32" s="336"/>
+      <c r="J32" s="336"/>
+      <c r="K32" s="336"/>
+      <c r="L32" s="336"/>
+      <c r="M32" s="336"/>
+      <c r="O32" s="272"/>
+      <c r="P32" s="220"/>
       <c r="Q32" s="100"/>
       <c r="R32" s="100"/>
       <c r="S32" s="100"/>
-      <c r="AR32" s="325" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS32" s="325"/>
-      <c r="AT32" s="325"/>
-      <c r="AU32" s="326"/>
+      <c r="AR32" s="337" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS32" s="337"/>
+      <c r="AT32" s="337"/>
+      <c r="AU32" s="273"/>
     </row>
     <row r="33" spans="1:48" ht="15.75">
       <c r="A33" s="100"/>
       <c r="B33" s="100"/>
       <c r="C33" s="85"/>
-      <c r="D33" s="327" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="327"/>
-      <c r="F33" s="327"/>
-      <c r="G33" s="327"/>
-      <c r="H33" s="327"/>
-      <c r="I33" s="327"/>
-      <c r="J33" s="327"/>
-      <c r="K33" s="327"/>
-      <c r="L33" s="328"/>
-      <c r="M33" s="328">
+      <c r="D33" s="340" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="340"/>
+      <c r="F33" s="340"/>
+      <c r="G33" s="340"/>
+      <c r="H33" s="340"/>
+      <c r="I33" s="340"/>
+      <c r="J33" s="340"/>
+      <c r="K33" s="340"/>
+      <c r="L33" s="274"/>
+      <c r="M33" s="274">
         <v>386746.34749999997</v>
       </c>
       <c r="P33" s="100"/>
       <c r="Q33" s="100"/>
       <c r="R33" s="100"/>
-      <c r="AR33" s="329">
-        <v>10184</v>
+      <c r="AR33" s="275">
+        <v>18154</v>
       </c>
       <c r="AS33" s="76" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AT33" s="76"/>
-      <c r="AU33" s="326"/>
-      <c r="AV33" s="330"/>
+      <c r="AU33" s="273"/>
+      <c r="AV33" s="276"/>
     </row>
     <row r="34" spans="1:48" ht="15.75">
       <c r="A34" s="100"/>
       <c r="B34" s="100"/>
       <c r="C34" s="85"/>
-      <c r="D34" s="331" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="331"/>
-      <c r="F34" s="331"/>
-      <c r="G34" s="331"/>
-      <c r="H34" s="331"/>
-      <c r="I34" s="331"/>
-      <c r="J34" s="331"/>
-      <c r="K34" s="331"/>
-      <c r="L34" s="269"/>
-      <c r="M34" s="332"/>
-      <c r="N34" s="267"/>
-      <c r="O34" s="267"/>
+      <c r="D34" s="341" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="341"/>
+      <c r="F34" s="341"/>
+      <c r="G34" s="341"/>
+      <c r="H34" s="341"/>
+      <c r="I34" s="341"/>
+      <c r="J34" s="341"/>
+      <c r="K34" s="341"/>
+      <c r="L34" s="222"/>
+      <c r="M34" s="277"/>
+      <c r="N34" s="220"/>
+      <c r="O34" s="220"/>
       <c r="P34" s="100"/>
       <c r="Q34" s="100"/>
-      <c r="AC34" s="324"/>
+      <c r="AC34" s="272"/>
       <c r="AQ34" s="100"/>
       <c r="AR34" s="76">
-        <v>6840</v>
+        <v>34758</v>
       </c>
       <c r="AS34" s="76" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AT34" s="76"/>
       <c r="AU34" s="100"/>
@@ -12149,16 +11932,16 @@
       <c r="A35" s="100"/>
       <c r="B35" s="100"/>
       <c r="C35" s="85"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="333"/>
-      <c r="G35" s="333"/>
-      <c r="H35" s="333"/>
-      <c r="I35" s="333"/>
-      <c r="J35" s="333"/>
-      <c r="K35" s="333"/>
-      <c r="L35" s="254"/>
-      <c r="M35" s="282">
+      <c r="D35" s="338"/>
+      <c r="E35" s="338"/>
+      <c r="F35" s="338"/>
+      <c r="G35" s="338"/>
+      <c r="H35" s="338"/>
+      <c r="I35" s="338"/>
+      <c r="J35" s="338"/>
+      <c r="K35" s="338"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="235">
         <f>M33+M34</f>
         <v>386746.34749999997</v>
       </c>
@@ -12170,7 +11953,7 @@
         <v>2200</v>
       </c>
       <c r="AS35" s="76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AT35" s="76"/>
     </row>
@@ -12178,18 +11961,18 @@
       <c r="A36" s="100"/>
       <c r="B36" s="100"/>
       <c r="C36" s="85"/>
-      <c r="D36" s="334" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="334"/>
-      <c r="F36" s="334"/>
-      <c r="G36" s="334"/>
-      <c r="H36" s="334"/>
-      <c r="I36" s="334"/>
-      <c r="J36" s="334"/>
-      <c r="K36" s="334"/>
-      <c r="L36" s="254"/>
-      <c r="M36" s="332">
+      <c r="D36" s="342" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="342"/>
+      <c r="F36" s="342"/>
+      <c r="G36" s="342"/>
+      <c r="H36" s="342"/>
+      <c r="I36" s="342"/>
+      <c r="J36" s="342"/>
+      <c r="K36" s="342"/>
+      <c r="L36" s="207"/>
+      <c r="M36" s="277">
         <v>142698</v>
       </c>
       <c r="O36" s="100"/>
@@ -12197,10 +11980,10 @@
       <c r="Q36" s="100"/>
       <c r="AQ36" s="100"/>
       <c r="AR36" s="76">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="AS36" s="76" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="AT36" s="76"/>
     </row>
@@ -12208,53 +11991,53 @@
       <c r="A37" s="100"/>
       <c r="B37" s="100"/>
       <c r="C37" s="85"/>
-      <c r="D37" s="327" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="327"/>
-      <c r="F37" s="327"/>
-      <c r="G37" s="327"/>
-      <c r="H37" s="327"/>
-      <c r="I37" s="327"/>
-      <c r="J37" s="327"/>
-      <c r="K37" s="327"/>
-      <c r="L37" s="335"/>
-      <c r="M37" s="336">
+      <c r="D37" s="340" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="340"/>
+      <c r="F37" s="340"/>
+      <c r="G37" s="340"/>
+      <c r="H37" s="340"/>
+      <c r="I37" s="340"/>
+      <c r="J37" s="340"/>
+      <c r="K37" s="340"/>
+      <c r="L37" s="278"/>
+      <c r="M37" s="279">
         <f>M35-M36</f>
         <v>244048.34749999997</v>
       </c>
-      <c r="O37" s="324"/>
-      <c r="AR37" s="272">
-        <v>6265</v>
+      <c r="O37" s="272"/>
+      <c r="AR37" s="225">
+        <v>13090</v>
       </c>
       <c r="AS37" s="76" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AT37" s="76"/>
     </row>
     <row r="38" spans="1:48" ht="15.75">
-      <c r="A38" s="337"/>
-      <c r="B38" s="337"/>
+      <c r="A38" s="280"/>
+      <c r="B38" s="280"/>
       <c r="C38" s="85"/>
-      <c r="D38" s="333" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="333"/>
-      <c r="F38" s="333"/>
-      <c r="G38" s="333"/>
-      <c r="H38" s="333"/>
-      <c r="I38" s="333"/>
-      <c r="J38" s="333"/>
-      <c r="K38" s="333"/>
-      <c r="L38" s="254"/>
-      <c r="M38" s="254">
+      <c r="D38" s="338" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="338"/>
+      <c r="F38" s="338"/>
+      <c r="G38" s="338"/>
+      <c r="H38" s="338"/>
+      <c r="I38" s="338"/>
+      <c r="J38" s="338"/>
+      <c r="K38" s="338"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207">
         <v>244000</v>
       </c>
       <c r="AR38" s="76">
         <v>3200</v>
       </c>
       <c r="AS38" s="76" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AT38" s="76"/>
     </row>
@@ -12262,26 +12045,26 @@
       <c r="A39" s="100"/>
       <c r="B39" s="100"/>
       <c r="C39" s="85"/>
-      <c r="D39" s="333" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="333"/>
-      <c r="F39" s="333"/>
-      <c r="G39" s="333"/>
-      <c r="H39" s="333"/>
-      <c r="I39" s="333"/>
-      <c r="J39" s="333"/>
-      <c r="K39" s="333"/>
-      <c r="L39" s="270"/>
-      <c r="M39" s="282">
+      <c r="D39" s="338" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="338"/>
+      <c r="F39" s="338"/>
+      <c r="G39" s="338"/>
+      <c r="H39" s="338"/>
+      <c r="I39" s="338"/>
+      <c r="J39" s="338"/>
+      <c r="K39" s="338"/>
+      <c r="L39" s="223"/>
+      <c r="M39" s="235">
         <f>M37-M38</f>
         <v>48.347499999974389</v>
       </c>
-      <c r="AR39" s="272">
+      <c r="AR39" s="225">
         <v>9000</v>
       </c>
-      <c r="AS39" s="329" t="s">
-        <v>141</v>
+      <c r="AS39" s="275" t="s">
+        <v>135</v>
       </c>
       <c r="AT39" s="76"/>
     </row>
@@ -12289,25 +12072,29 @@
       <c r="A40" s="100"/>
       <c r="B40" s="100"/>
       <c r="C40" s="85"/>
-      <c r="D40" s="338" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="338"/>
-      <c r="F40" s="338"/>
-      <c r="G40" s="338"/>
-      <c r="H40" s="338"/>
-      <c r="I40" s="338"/>
-      <c r="J40" s="338"/>
-      <c r="K40" s="338"/>
-      <c r="L40" s="339"/>
-      <c r="M40" s="340">
+      <c r="D40" s="339" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="339"/>
+      <c r="F40" s="339"/>
+      <c r="G40" s="339"/>
+      <c r="H40" s="339"/>
+      <c r="I40" s="339"/>
+      <c r="J40" s="339"/>
+      <c r="K40" s="339"/>
+      <c r="L40" s="281"/>
+      <c r="M40" s="282">
         <f>M36+M39</f>
         <v>142746.34749999997</v>
       </c>
-      <c r="AO40" s="341"/>
-      <c r="AR40" s="329"/>
-      <c r="AS40" s="76"/>
-      <c r="AT40" s="329"/>
+      <c r="AO40" s="283"/>
+      <c r="AR40" s="275">
+        <v>500</v>
+      </c>
+      <c r="AS40" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT40" s="275"/>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="100"/>
@@ -12317,10 +12104,10 @@
       <c r="E41" s="85"/>
       <c r="F41" s="100"/>
       <c r="G41" s="100"/>
-      <c r="Q41" s="330"/>
-      <c r="AR41" s="329"/>
+      <c r="Q41" s="276"/>
+      <c r="AR41" s="275"/>
       <c r="AS41" s="76"/>
-      <c r="AT41" s="329"/>
+      <c r="AT41" s="275"/>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="100"/>
@@ -12330,9 +12117,9 @@
       <c r="E42" s="85"/>
       <c r="F42" s="100"/>
       <c r="G42" s="100"/>
-      <c r="AR42" s="329"/>
-      <c r="AS42" s="329"/>
-      <c r="AT42" s="329"/>
+      <c r="AR42" s="275"/>
+      <c r="AS42" s="275"/>
+      <c r="AT42" s="275"/>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="100"/>
@@ -12342,8 +12129,8 @@
       <c r="E43" s="85"/>
       <c r="F43" s="100"/>
       <c r="G43" s="100"/>
-      <c r="AR43" s="329"/>
-      <c r="AS43" s="329"/>
+      <c r="AR43" s="275"/>
+      <c r="AS43" s="275"/>
       <c r="AT43" s="76"/>
     </row>
     <row r="44" spans="1:48">
@@ -12354,11 +12141,11 @@
       <c r="E44" s="100"/>
       <c r="F44" s="100"/>
       <c r="G44" s="100"/>
-      <c r="AR44" s="329">
+      <c r="AR44" s="275">
         <f>SUM(AR33:AR43)</f>
-        <v>38989</v>
-      </c>
-      <c r="AS44" s="329"/>
+        <v>81602</v>
+      </c>
+      <c r="AS44" s="275"/>
       <c r="AT44" s="76"/>
     </row>
     <row r="45" spans="1:48">
@@ -12389,7 +12176,7 @@
       <c r="C47" s="100"/>
       <c r="D47" s="100"/>
       <c r="E47" s="100"/>
-      <c r="AR47" s="267"/>
+      <c r="AR47" s="220"/>
       <c r="AS47" s="100"/>
       <c r="AT47" s="100"/>
     </row>
@@ -12400,8 +12187,8 @@
       <c r="D48" s="100"/>
       <c r="E48" s="100"/>
       <c r="AR48" s="100"/>
-      <c r="AS48" s="326"/>
-      <c r="AT48" s="326"/>
+      <c r="AS48" s="273"/>
+      <c r="AT48" s="273"/>
     </row>
     <row r="49" spans="1:46">
       <c r="A49" s="100"/>
@@ -12409,7 +12196,7 @@
       <c r="C49" s="100"/>
       <c r="D49" s="100"/>
       <c r="E49" s="100"/>
-      <c r="AR49" s="267"/>
+      <c r="AR49" s="220"/>
       <c r="AS49" s="100"/>
       <c r="AT49" s="100"/>
     </row>
@@ -12419,8 +12206,8 @@
       <c r="C50" s="100"/>
       <c r="D50" s="100"/>
       <c r="E50" s="100"/>
-      <c r="AM50" s="330" t="s">
-        <v>143</v>
+      <c r="AM50" s="276" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:46">
@@ -13045,7 +12832,7 @@
       <c r="E169" s="100"/>
     </row>
     <row r="65539" spans="1:1">
-      <c r="A65539" s="342"/>
+      <c r="A65539" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13072,77 +12859,80 @@
     <mergeCell ref="AC4:AT4"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
-    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
       <formula>$AQ$7:$AQ$18&lt;100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:P30 D30:J30 Q30:AB30">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K30 L29:P29 D30:J30 L30:AB30">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N30 D30:L30">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$M$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O30">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$O$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P30">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$P$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT6:AT29">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT7:AT18">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K29 L29:P29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M29" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Jan'2021/Daily Sales Details/06.01.2021/BL Sales Info.xlsx
+++ b/Jan'2021/Daily Sales Details/06.01.2021/BL Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2432,6 +2432,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2483,30 +2507,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2552,19 +2552,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2591,19 +2591,19 @@
     <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3094,70 +3094,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="295" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
-      <c r="Q1" s="287"/>
-      <c r="R1" s="287"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
+      <c r="P1" s="295"/>
+      <c r="Q1" s="295"/>
+      <c r="R1" s="295"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="296" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288"/>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
-      <c r="O2" s="288"/>
-      <c r="P2" s="288"/>
-      <c r="Q2" s="288"/>
-      <c r="R2" s="288"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="296"/>
+      <c r="P2" s="296"/>
+      <c r="Q2" s="296"/>
+      <c r="R2" s="296"/>
     </row>
     <row r="3" spans="1:25" s="136" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="305" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
-      <c r="R3" s="299"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="306"/>
+      <c r="L3" s="306"/>
+      <c r="M3" s="306"/>
+      <c r="N3" s="306"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="306"/>
+      <c r="Q3" s="306"/>
+      <c r="R3" s="307"/>
       <c r="T3" s="137"/>
       <c r="U3" s="138"/>
       <c r="V3" s="138"/>
@@ -3166,55 +3166,55 @@
       <c r="Y3" s="139"/>
     </row>
     <row r="4" spans="1:25" s="139" customFormat="1">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="297" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="291" t="s">
+      <c r="B4" s="299" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="299" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="285" t="s">
+      <c r="D4" s="293" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="285" t="s">
+      <c r="E4" s="293" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="285" t="s">
+      <c r="F4" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="285" t="s">
+      <c r="G4" s="293" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="285" t="s">
+      <c r="H4" s="293" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="285" t="s">
+      <c r="I4" s="293" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="285" t="s">
+      <c r="J4" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="300" t="s">
+      <c r="K4" s="308" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="302" t="s">
+      <c r="L4" s="285" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="304" t="s">
+      <c r="M4" s="287" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="306" t="s">
+      <c r="N4" s="289" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="308" t="s">
+      <c r="O4" s="291" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="293" t="s">
+      <c r="P4" s="301" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="295" t="s">
+      <c r="Q4" s="303" t="s">
         <v>50</v>
       </c>
       <c r="R4" s="140" t="s">
@@ -3227,23 +3227,23 @@
       <c r="X4" s="138"/>
     </row>
     <row r="5" spans="1:25" s="139" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="290"/>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="303"/>
-      <c r="M5" s="305"/>
-      <c r="N5" s="307"/>
-      <c r="O5" s="309"/>
-      <c r="P5" s="294"/>
-      <c r="Q5" s="296"/>
+      <c r="A5" s="298"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="294"/>
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="286"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="292"/>
+      <c r="P5" s="302"/>
+      <c r="Q5" s="304"/>
       <c r="R5" s="142" t="s">
         <v>52</v>
       </c>
@@ -6179,14 +6179,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6199,6 +6191,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8180,7 +8180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -8586,12 +8586,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="26" ySplit="8" topLeftCell="AC36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="26" ySplit="8" topLeftCell="AC9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
-      <selection pane="bottomRight" activeCell="AC44" sqref="AC44"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8643,154 +8643,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="25.5" customHeight="1">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="338" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325"/>
-      <c r="S1" s="325"/>
-      <c r="T1" s="325"/>
-      <c r="U1" s="325"/>
-      <c r="V1" s="325"/>
-      <c r="W1" s="325"/>
-      <c r="X1" s="325"/>
-      <c r="Y1" s="325"/>
-      <c r="Z1" s="325"/>
-      <c r="AA1" s="325"/>
-      <c r="AB1" s="325"/>
-      <c r="AC1" s="325"/>
-      <c r="AD1" s="325"/>
-      <c r="AE1" s="325"/>
-      <c r="AF1" s="325"/>
-      <c r="AG1" s="325"/>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="325"/>
-      <c r="AJ1" s="325"/>
-      <c r="AK1" s="325"/>
-      <c r="AL1" s="325"/>
-      <c r="AM1" s="325"/>
-      <c r="AN1" s="325"/>
-      <c r="AO1" s="325"/>
-      <c r="AP1" s="325"/>
-      <c r="AQ1" s="325"/>
-      <c r="AR1" s="325"/>
-      <c r="AS1" s="325"/>
-      <c r="AT1" s="325"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="338"/>
+      <c r="Q1" s="338"/>
+      <c r="R1" s="338"/>
+      <c r="S1" s="338"/>
+      <c r="T1" s="338"/>
+      <c r="U1" s="338"/>
+      <c r="V1" s="338"/>
+      <c r="W1" s="338"/>
+      <c r="X1" s="338"/>
+      <c r="Y1" s="338"/>
+      <c r="Z1" s="338"/>
+      <c r="AA1" s="338"/>
+      <c r="AB1" s="338"/>
+      <c r="AC1" s="338"/>
+      <c r="AD1" s="338"/>
+      <c r="AE1" s="338"/>
+      <c r="AF1" s="338"/>
+      <c r="AG1" s="338"/>
+      <c r="AH1" s="338"/>
+      <c r="AI1" s="338"/>
+      <c r="AJ1" s="338"/>
+      <c r="AK1" s="338"/>
+      <c r="AL1" s="338"/>
+      <c r="AM1" s="338"/>
+      <c r="AN1" s="338"/>
+      <c r="AO1" s="338"/>
+      <c r="AP1" s="338"/>
+      <c r="AQ1" s="338"/>
+      <c r="AR1" s="338"/>
+      <c r="AS1" s="338"/>
+      <c r="AT1" s="338"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="326"/>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="326"/>
-      <c r="P2" s="326"/>
-      <c r="Q2" s="326"/>
-      <c r="R2" s="326"/>
-      <c r="S2" s="326"/>
-      <c r="T2" s="326"/>
-      <c r="U2" s="326"/>
-      <c r="V2" s="326"/>
-      <c r="W2" s="326"/>
-      <c r="X2" s="326"/>
-      <c r="Y2" s="326"/>
-      <c r="Z2" s="326"/>
-      <c r="AA2" s="326"/>
-      <c r="AB2" s="326"/>
-      <c r="AC2" s="326"/>
-      <c r="AD2" s="326"/>
-      <c r="AE2" s="326"/>
-      <c r="AF2" s="326"/>
-      <c r="AG2" s="326"/>
-      <c r="AH2" s="326"/>
-      <c r="AI2" s="326"/>
-      <c r="AJ2" s="326"/>
-      <c r="AK2" s="326"/>
-      <c r="AL2" s="326"/>
-      <c r="AM2" s="326"/>
-      <c r="AN2" s="326"/>
-      <c r="AO2" s="326"/>
-      <c r="AP2" s="326"/>
-      <c r="AQ2" s="326"/>
-      <c r="AR2" s="326"/>
-      <c r="AS2" s="326"/>
-      <c r="AT2" s="326"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="339"/>
+      <c r="N2" s="339"/>
+      <c r="O2" s="339"/>
+      <c r="P2" s="339"/>
+      <c r="Q2" s="339"/>
+      <c r="R2" s="339"/>
+      <c r="S2" s="339"/>
+      <c r="T2" s="339"/>
+      <c r="U2" s="339"/>
+      <c r="V2" s="339"/>
+      <c r="W2" s="339"/>
+      <c r="X2" s="339"/>
+      <c r="Y2" s="339"/>
+      <c r="Z2" s="339"/>
+      <c r="AA2" s="339"/>
+      <c r="AB2" s="339"/>
+      <c r="AC2" s="339"/>
+      <c r="AD2" s="339"/>
+      <c r="AE2" s="339"/>
+      <c r="AF2" s="339"/>
+      <c r="AG2" s="339"/>
+      <c r="AH2" s="339"/>
+      <c r="AI2" s="339"/>
+      <c r="AJ2" s="339"/>
+      <c r="AK2" s="339"/>
+      <c r="AL2" s="339"/>
+      <c r="AM2" s="339"/>
+      <c r="AN2" s="339"/>
+      <c r="AO2" s="339"/>
+      <c r="AP2" s="339"/>
+      <c r="AQ2" s="339"/>
+      <c r="AR2" s="339"/>
+      <c r="AS2" s="339"/>
+      <c r="AT2" s="339"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="340" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
-      <c r="N3" s="329"/>
-      <c r="O3" s="329"/>
-      <c r="P3" s="329"/>
-      <c r="Q3" s="329"/>
-      <c r="R3" s="329"/>
-      <c r="S3" s="329"/>
-      <c r="T3" s="329"/>
-      <c r="U3" s="329"/>
-      <c r="V3" s="329"/>
-      <c r="W3" s="329"/>
-      <c r="X3" s="329"/>
-      <c r="Y3" s="329"/>
-      <c r="Z3" s="329"/>
-      <c r="AA3" s="329"/>
-      <c r="AB3" s="329"/>
-      <c r="AC3" s="329"/>
-      <c r="AD3" s="329"/>
-      <c r="AE3" s="329"/>
-      <c r="AF3" s="329"/>
-      <c r="AG3" s="329"/>
-      <c r="AH3" s="329"/>
-      <c r="AI3" s="329"/>
-      <c r="AJ3" s="329"/>
-      <c r="AK3" s="329"/>
-      <c r="AL3" s="329"/>
-      <c r="AM3" s="329"/>
-      <c r="AN3" s="329"/>
-      <c r="AO3" s="329"/>
-      <c r="AP3" s="329"/>
-      <c r="AQ3" s="329"/>
-      <c r="AR3" s="329"/>
-      <c r="AS3" s="329"/>
-      <c r="AT3" s="329"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="342"/>
+      <c r="K3" s="342"/>
+      <c r="L3" s="342"/>
+      <c r="M3" s="342"/>
+      <c r="N3" s="342"/>
+      <c r="O3" s="342"/>
+      <c r="P3" s="342"/>
+      <c r="Q3" s="342"/>
+      <c r="R3" s="342"/>
+      <c r="S3" s="342"/>
+      <c r="T3" s="342"/>
+      <c r="U3" s="342"/>
+      <c r="V3" s="342"/>
+      <c r="W3" s="342"/>
+      <c r="X3" s="342"/>
+      <c r="Y3" s="342"/>
+      <c r="Z3" s="342"/>
+      <c r="AA3" s="342"/>
+      <c r="AB3" s="342"/>
+      <c r="AC3" s="342"/>
+      <c r="AD3" s="342"/>
+      <c r="AE3" s="342"/>
+      <c r="AF3" s="342"/>
+      <c r="AG3" s="342"/>
+      <c r="AH3" s="342"/>
+      <c r="AI3" s="342"/>
+      <c r="AJ3" s="342"/>
+      <c r="AK3" s="342"/>
+      <c r="AL3" s="342"/>
+      <c r="AM3" s="342"/>
+      <c r="AN3" s="342"/>
+      <c r="AO3" s="342"/>
+      <c r="AP3" s="342"/>
+      <c r="AQ3" s="342"/>
+      <c r="AR3" s="342"/>
+      <c r="AS3" s="342"/>
+      <c r="AT3" s="342"/>
     </row>
     <row r="4" spans="1:56">
       <c r="A4" s="330" t="s">
@@ -11870,16 +11870,16 @@
       <c r="A33" s="100"/>
       <c r="B33" s="100"/>
       <c r="C33" s="85"/>
-      <c r="D33" s="340" t="s">
+      <c r="D33" s="327" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="340"/>
-      <c r="F33" s="340"/>
-      <c r="G33" s="340"/>
-      <c r="H33" s="340"/>
-      <c r="I33" s="340"/>
-      <c r="J33" s="340"/>
-      <c r="K33" s="340"/>
+      <c r="E33" s="327"/>
+      <c r="F33" s="327"/>
+      <c r="G33" s="327"/>
+      <c r="H33" s="327"/>
+      <c r="I33" s="327"/>
+      <c r="J33" s="327"/>
+      <c r="K33" s="327"/>
       <c r="L33" s="274"/>
       <c r="M33" s="274">
         <v>386746.34749999997</v>
@@ -11901,16 +11901,16 @@
       <c r="A34" s="100"/>
       <c r="B34" s="100"/>
       <c r="C34" s="85"/>
-      <c r="D34" s="341" t="s">
+      <c r="D34" s="328" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="341"/>
-      <c r="F34" s="341"/>
-      <c r="G34" s="341"/>
-      <c r="H34" s="341"/>
-      <c r="I34" s="341"/>
-      <c r="J34" s="341"/>
-      <c r="K34" s="341"/>
+      <c r="E34" s="328"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="328"/>
+      <c r="K34" s="328"/>
       <c r="L34" s="222"/>
       <c r="M34" s="277"/>
       <c r="N34" s="220"/>
@@ -11932,14 +11932,14 @@
       <c r="A35" s="100"/>
       <c r="B35" s="100"/>
       <c r="C35" s="85"/>
-      <c r="D35" s="338"/>
-      <c r="E35" s="338"/>
-      <c r="F35" s="338"/>
-      <c r="G35" s="338"/>
-      <c r="H35" s="338"/>
-      <c r="I35" s="338"/>
-      <c r="J35" s="338"/>
-      <c r="K35" s="338"/>
+      <c r="D35" s="325"/>
+      <c r="E35" s="325"/>
+      <c r="F35" s="325"/>
+      <c r="G35" s="325"/>
+      <c r="H35" s="325"/>
+      <c r="I35" s="325"/>
+      <c r="J35" s="325"/>
+      <c r="K35" s="325"/>
       <c r="L35" s="207"/>
       <c r="M35" s="235">
         <f>M33+M34</f>
@@ -11961,16 +11961,16 @@
       <c r="A36" s="100"/>
       <c r="B36" s="100"/>
       <c r="C36" s="85"/>
-      <c r="D36" s="342" t="s">
+      <c r="D36" s="329" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="342"/>
-      <c r="F36" s="342"/>
-      <c r="G36" s="342"/>
-      <c r="H36" s="342"/>
-      <c r="I36" s="342"/>
-      <c r="J36" s="342"/>
-      <c r="K36" s="342"/>
+      <c r="E36" s="329"/>
+      <c r="F36" s="329"/>
+      <c r="G36" s="329"/>
+      <c r="H36" s="329"/>
+      <c r="I36" s="329"/>
+      <c r="J36" s="329"/>
+      <c r="K36" s="329"/>
       <c r="L36" s="207"/>
       <c r="M36" s="277">
         <v>142698</v>
@@ -11991,16 +11991,16 @@
       <c r="A37" s="100"/>
       <c r="B37" s="100"/>
       <c r="C37" s="85"/>
-      <c r="D37" s="340" t="s">
+      <c r="D37" s="327" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="340"/>
-      <c r="F37" s="340"/>
-      <c r="G37" s="340"/>
-      <c r="H37" s="340"/>
-      <c r="I37" s="340"/>
-      <c r="J37" s="340"/>
-      <c r="K37" s="340"/>
+      <c r="E37" s="327"/>
+      <c r="F37" s="327"/>
+      <c r="G37" s="327"/>
+      <c r="H37" s="327"/>
+      <c r="I37" s="327"/>
+      <c r="J37" s="327"/>
+      <c r="K37" s="327"/>
       <c r="L37" s="278"/>
       <c r="M37" s="279">
         <f>M35-M36</f>
@@ -12019,16 +12019,16 @@
       <c r="A38" s="280"/>
       <c r="B38" s="280"/>
       <c r="C38" s="85"/>
-      <c r="D38" s="338" t="s">
+      <c r="D38" s="325" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="338"/>
-      <c r="F38" s="338"/>
-      <c r="G38" s="338"/>
-      <c r="H38" s="338"/>
-      <c r="I38" s="338"/>
-      <c r="J38" s="338"/>
-      <c r="K38" s="338"/>
+      <c r="E38" s="325"/>
+      <c r="F38" s="325"/>
+      <c r="G38" s="325"/>
+      <c r="H38" s="325"/>
+      <c r="I38" s="325"/>
+      <c r="J38" s="325"/>
+      <c r="K38" s="325"/>
       <c r="L38" s="207"/>
       <c r="M38" s="207">
         <v>244000</v>
@@ -12045,16 +12045,16 @@
       <c r="A39" s="100"/>
       <c r="B39" s="100"/>
       <c r="C39" s="85"/>
-      <c r="D39" s="338" t="s">
+      <c r="D39" s="325" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="338"/>
-      <c r="F39" s="338"/>
-      <c r="G39" s="338"/>
-      <c r="H39" s="338"/>
-      <c r="I39" s="338"/>
-      <c r="J39" s="338"/>
-      <c r="K39" s="338"/>
+      <c r="E39" s="325"/>
+      <c r="F39" s="325"/>
+      <c r="G39" s="325"/>
+      <c r="H39" s="325"/>
+      <c r="I39" s="325"/>
+      <c r="J39" s="325"/>
+      <c r="K39" s="325"/>
       <c r="L39" s="223"/>
       <c r="M39" s="235">
         <f>M37-M38</f>
@@ -12072,16 +12072,16 @@
       <c r="A40" s="100"/>
       <c r="B40" s="100"/>
       <c r="C40" s="85"/>
-      <c r="D40" s="339" t="s">
+      <c r="D40" s="326" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="339"/>
-      <c r="F40" s="339"/>
-      <c r="G40" s="339"/>
-      <c r="H40" s="339"/>
-      <c r="I40" s="339"/>
-      <c r="J40" s="339"/>
-      <c r="K40" s="339"/>
+      <c r="E40" s="326"/>
+      <c r="F40" s="326"/>
+      <c r="G40" s="326"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
       <c r="L40" s="281"/>
       <c r="M40" s="282">
         <f>M36+M39</f>
@@ -12836,6 +12836,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:AT1"/>
+    <mergeCell ref="A2:AT2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:AT3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="AC4:AT4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AC5:AT5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="AR32:AT32"/>
     <mergeCell ref="D39:K39"/>
     <mergeCell ref="D40:K40"/>
     <mergeCell ref="D33:K33"/>
@@ -12844,19 +12857,6 @@
     <mergeCell ref="D36:K36"/>
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="D38:K38"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AC5:AT5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="AR32:AT32"/>
-    <mergeCell ref="A1:AT1"/>
-    <mergeCell ref="A2:AT2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:AT3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="AC4:AT4"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
